--- a/csv/P56_Data_Consolidated.xlsx
+++ b/csv/P56_Data_Consolidated.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="24340" windowHeight="23480" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2080" yWindow="460" windowWidth="31200" windowHeight="23340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="all_meals" sheetId="2" r:id="rId1"/>
@@ -22,14 +22,14 @@
   </sheets>
   <definedNames>
     <definedName name="_56_after_sn_1" localSheetId="4">afternoon_snack!$A$1:$AM$10</definedName>
-    <definedName name="_56_all_mealyzer" localSheetId="0">all_meals!$A$1:$AL$61</definedName>
+    <definedName name="_56_all_mealyzer" localSheetId="0">all_meals!$A$1:$AM$61</definedName>
     <definedName name="_56_breakfast" localSheetId="1">breakfast!$A$1:$AM$14</definedName>
     <definedName name="_56_dinner" localSheetId="5">dinner!$A$1:$AM$25</definedName>
     <definedName name="_56_dinner_sn" localSheetId="6">dinner_snack!$A$1:$AM$4</definedName>
     <definedName name="_56_lunch" localSheetId="3">lunch!$A$1:$AM$11</definedName>
     <definedName name="_56_morn_sn" localSheetId="2">morning_snack!$A$1:$AM$2</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -44,7 +44,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="56_after_sn" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/mlh2169/Github/mealyzer/csv/56_after_sn.csv" tab="0" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/mlh2169/Github/mealyzer/csv/56_after_sn.csv" tab="0" comma="1">
       <textFields count="37">
         <textField/>
         <textField/>
@@ -87,7 +87,7 @@
     </textPr>
   </connection>
   <connection id="2" name="56_all_mealyzer" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/mlh2169/Github/mealyzer/csv/56_all_mealyzer.csv" tab="0" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/mlh2169/Github/mealyzer/csv/56_all_mealyzer.csv" tab="0" comma="1">
       <textFields count="37">
         <textField/>
         <textField/>
@@ -130,7 +130,7 @@
     </textPr>
   </connection>
   <connection id="3" name="56_breakfast" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/mlh2169/Github/mealyzer/csv/56_breakfast.csv" tab="0" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/mlh2169/Github/mealyzer/csv/56_breakfast.csv" tab="0" comma="1">
       <textFields count="37">
         <textField/>
         <textField/>
@@ -173,7 +173,7 @@
     </textPr>
   </connection>
   <connection id="4" name="56_dinner" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/mlh2169/Github/mealyzer/csv/56_dinner.csv" tab="0" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/mlh2169/Github/mealyzer/csv/56_dinner.csv" tab="0" comma="1">
       <textFields count="37">
         <textField/>
         <textField/>
@@ -216,7 +216,7 @@
     </textPr>
   </connection>
   <connection id="5" name="56_dinner_sn" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/mlh2169/Github/mealyzer/csv/56_dinner_sn.csv" tab="0" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/mlh2169/Github/mealyzer/csv/56_dinner_sn.csv" tab="0" comma="1">
       <textFields count="37">
         <textField/>
         <textField/>
@@ -259,7 +259,7 @@
     </textPr>
   </connection>
   <connection id="6" name="56_lunch" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/mlh2169/Github/mealyzer/csv/56_lunch.csv" tab="0" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/mlh2169/Github/mealyzer/csv/56_lunch.csv" tab="0" comma="1">
       <textFields count="37">
         <textField/>
         <textField/>
@@ -302,7 +302,7 @@
     </textPr>
   </connection>
   <connection id="7" name="56_morn_sn" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/mlh2169/Github/mealyzer/csv/56_morn_sn.csv" tab="0" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/mlh2169/Github/mealyzer/csv/56_morn_sn.csv" tab="0" comma="1">
       <textFields count="37">
         <textField/>
         <textField/>
@@ -348,7 +348,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="225">
   <si>
     <t>id</t>
   </si>
@@ -1385,10 +1385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL61"/>
+  <dimension ref="A1:AM61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1396,41 +1396,42 @@
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.5" customWidth="1"/>
+    <col min="5" max="5" width="70.5" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1440,110 +1441,116 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>173</v>
+      </c>
       <c r="E1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>775</v>
       </c>
@@ -1553,104 +1560,111 @@
       <c r="C2" t="s">
         <v>57</v>
       </c>
+      <c r="D2" s="2" t="str">
+        <f>HYPERLINK(E2,E2)</f>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/775/original/pic.jpg</v>
+      </c>
       <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="1">
+        <v>190</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="1">
         <v>42629.838888888888</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>42632.604166666664</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>42629.839583333334</v>
       </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
       <c r="J2" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="1">
         <v>42632.604166666664</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>58</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>59</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>15</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>10</v>
       </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
       <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
         <v>30</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>20</v>
       </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
       <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
         <v>20</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>14</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
       <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
         <v>2</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>4</v>
       </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
       <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
         <v>450</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>266</v>
       </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
       <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
         <v>107</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>127</v>
       </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
       <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
         <v>0.4</v>
       </c>
-      <c r="AI2" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ2" t="s">
         <v>41</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AK2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL2" s="1">
         <v>42629.880555555559</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>777</v>
       </c>
@@ -1660,104 +1674,111 @@
       <c r="C3" t="s">
         <v>60</v>
       </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3:D61" si="0">HYPERLINK(E3,E3)</f>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/777/original/pic.jpg</v>
+      </c>
       <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="1">
+        <v>214</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="1">
         <v>42630.524305555555</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>42632.624305555553</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>42630.524305555555</v>
       </c>
-      <c r="I3" t="s">
-        <v>38</v>
-      </c>
       <c r="J3" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="1">
         <v>42632.624305555553</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>61</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>20</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>18</v>
       </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
       <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
         <v>25</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>16</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
       <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
         <v>20</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>6</v>
       </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
       <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
         <v>5</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>3</v>
       </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
       <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
         <v>400</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>190</v>
       </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
       <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
         <v>99</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>123</v>
       </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
       <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
         <v>0.4</v>
       </c>
-      <c r="AI3" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ3" t="s">
         <v>41</v>
       </c>
-      <c r="AK3" s="1">
+      <c r="AK3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL3" s="1">
         <v>42630.565972222219</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>782</v>
       </c>
@@ -1767,104 +1788,111 @@
       <c r="C4" t="s">
         <v>57</v>
       </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/782/original/pic.jpg</v>
+      </c>
       <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="1">
+        <v>191</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="1">
         <v>42630.813194444447</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>42636.198611111111</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>42630.813194444447</v>
       </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
       <c r="J4" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="1">
         <v>42632.790972222225</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>63</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>64</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>20</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>29</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
       <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>30</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>26</v>
       </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
       <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
         <v>70</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>20</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
       <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
         <v>6</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>2</v>
       </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
       <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
         <v>900</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>443</v>
       </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
       <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
         <v>95</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>104</v>
       </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
       <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
         <v>0.4</v>
       </c>
-      <c r="AI4" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ4" t="s">
         <v>41</v>
       </c>
-      <c r="AK4" s="1">
+      <c r="AK4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL4" s="1">
         <v>42630.854861111111</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>583</v>
       </c>
@@ -1874,104 +1902,111 @@
       <c r="C5" t="s">
         <v>37</v>
       </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/583/original/pic.jpg</v>
+      </c>
       <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="1">
+        <v>164</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="1">
         <v>42608.818055555559</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>42609.30972222222</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>42608.818055555559</v>
       </c>
-      <c r="I5" t="s">
-        <v>38</v>
-      </c>
       <c r="J5" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="1">
         <v>42609.30972222222</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>39</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>40</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>5</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>3</v>
       </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
         <v>100</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>101</v>
       </c>
-      <c r="AB5">
-        <v>1</v>
-      </c>
       <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
         <v>117</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>115</v>
       </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
       <c r="AG5">
-        <v>1</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
       </c>
       <c r="AJ5" t="s">
         <v>41</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AK5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL5" s="1">
         <v>42608.859722222223</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>584</v>
       </c>
@@ -1981,104 +2016,111 @@
       <c r="C6" t="s">
         <v>57</v>
       </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/584/original/pic.jpg</v>
+      </c>
       <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="1">
+        <v>192</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="1">
         <v>42608.854861111111</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>42609.334722222222</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>42608.854861111111</v>
       </c>
-      <c r="I6" t="s">
-        <v>38</v>
-      </c>
       <c r="J6" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="1">
         <v>42609.334722222222</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>65</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>66</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>4</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>11</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
       <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>25</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>17</v>
       </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
       <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
         <v>17</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>21</v>
       </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
       <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
         <v>8</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>6</v>
       </c>
-      <c r="Y6">
-        <v>1</v>
-      </c>
       <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
         <v>340</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>301</v>
       </c>
-      <c r="AB6">
-        <v>1</v>
-      </c>
       <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
         <v>115</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>119</v>
       </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
       <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
         <v>0.6</v>
       </c>
-      <c r="AI6" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ6" t="s">
         <v>41</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="AK6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL6" s="1">
         <v>42608.896527777775</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AM6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>588</v>
       </c>
@@ -2088,104 +2130,111 @@
       <c r="C7" t="s">
         <v>67</v>
       </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/588/original/pic.jpg</v>
+      </c>
       <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="1">
+        <v>174</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="1">
         <v>42609.352083333331</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>42609.789583333331</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>42609.352777777778</v>
       </c>
-      <c r="I7" t="s">
-        <v>38</v>
-      </c>
       <c r="J7" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="1">
         <v>42609.789583333331</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>68</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>69</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>40</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>52</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
       <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>30</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>26</v>
       </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
       <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
         <v>50</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>45</v>
       </c>
-      <c r="V7">
-        <v>1</v>
-      </c>
       <c r="W7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <v>5</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
         <v>900</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>698</v>
       </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
       <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
         <v>103</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>117</v>
       </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
       <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
         <v>0.6</v>
       </c>
-      <c r="AI7" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ7" t="s">
         <v>41</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="AK7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL7" s="1">
         <v>42609.393750000003</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AM7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>590</v>
       </c>
@@ -2195,104 +2244,111 @@
       <c r="C8" t="s">
         <v>60</v>
       </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/590/original/pic.jpg</v>
+      </c>
       <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="1">
+        <v>215</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="1">
         <v>42609.533333333333</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>42609.826388888891</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>42609.540277777778</v>
       </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
       <c r="J8" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="1">
         <v>42609.826388888891</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>70</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>71</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>40</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>53</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
       <c r="Q8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>10</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
         <v>20</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>15</v>
       </c>
-      <c r="V8">
-        <v>1</v>
-      </c>
       <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
         <v>5</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>9</v>
       </c>
-      <c r="Y8">
-        <v>1</v>
-      </c>
       <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
         <v>500</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>387</v>
       </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
       <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
         <v>127</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>129</v>
       </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
       <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
         <v>0.6</v>
       </c>
-      <c r="AI8" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ8" t="s">
         <v>41</v>
       </c>
-      <c r="AK8" s="1">
+      <c r="AK8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL8" s="1">
         <v>42609.574999999997</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AM8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>593</v>
       </c>
@@ -2302,60 +2358,64 @@
       <c r="C9" t="s">
         <v>37</v>
       </c>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/593/original/pic.jpg</v>
+      </c>
       <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="1">
+        <v>165</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="1">
         <v>42609.651388888888</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>42609.852777777778</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>42609.652083333334</v>
       </c>
-      <c r="I9" t="s">
-        <v>38</v>
-      </c>
       <c r="J9" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="1">
         <v>42609.852777777778</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>42</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>43</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>10</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>11</v>
       </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
       <c r="Q9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <v>5</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
         <v>15</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>16</v>
       </c>
-      <c r="V9">
-        <v>1</v>
-      </c>
       <c r="W9">
         <v>1</v>
       </c>
@@ -2366,40 +2426,43 @@
         <v>1</v>
       </c>
       <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
         <v>200</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>198</v>
       </c>
-      <c r="AB9">
-        <v>1</v>
-      </c>
       <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
         <v>119</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>111</v>
       </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
       <c r="AG9">
-        <v>1</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
       </c>
       <c r="AJ9" t="s">
         <v>41</v>
       </c>
-      <c r="AK9" s="1">
+      <c r="AK9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL9" s="1">
         <v>42609.693055555559</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AM9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>594</v>
       </c>
@@ -2409,104 +2472,111 @@
       <c r="C10" t="s">
         <v>37</v>
       </c>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/594/original/pic.jpg</v>
+      </c>
       <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="1">
+        <v>166</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="1">
         <v>42609.74722222222</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>42609.854861111111</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>42609.74722222222</v>
       </c>
-      <c r="I10" t="s">
-        <v>38</v>
-      </c>
       <c r="J10" t="s">
         <v>38</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="1">
         <v>42609.854166666664</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>44</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>45</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>4</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>3</v>
       </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
         <v>100</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>101</v>
       </c>
-      <c r="AB10">
-        <v>1</v>
-      </c>
       <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
         <v>110</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>105</v>
       </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
       <c r="AG10">
-        <v>1</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>1</v>
       </c>
       <c r="AJ10" t="s">
         <v>41</v>
       </c>
-      <c r="AK10" s="1">
+      <c r="AK10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL10" s="1">
         <v>42609.788888888892</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AM10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>596</v>
       </c>
@@ -2516,104 +2586,111 @@
       <c r="C11" t="s">
         <v>57</v>
       </c>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/596/original/pic.jpg</v>
+      </c>
       <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="1">
+        <v>193</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="1">
         <v>42609.794444444444</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>42610.670138888891</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>42609.795138888891</v>
       </c>
-      <c r="I11" t="s">
-        <v>38</v>
-      </c>
       <c r="J11" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="1">
         <v>42610.670138888891</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>72</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>73</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>35</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>37</v>
       </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
       <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
         <v>35</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>23</v>
       </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
       <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
         <v>25</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>17</v>
       </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
       <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
         <v>5</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>8</v>
       </c>
-      <c r="Y11">
-        <v>1</v>
-      </c>
       <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
         <v>1000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>398</v>
       </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
       <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
         <v>105</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>111</v>
       </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
       <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
         <v>0.4</v>
       </c>
-      <c r="AI11" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ11" t="s">
         <v>41</v>
       </c>
-      <c r="AK11" s="1">
+      <c r="AK11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL11" s="1">
         <v>42609.836111111108</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AM11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>597</v>
       </c>
@@ -2623,104 +2700,111 @@
       <c r="C12" t="s">
         <v>74</v>
       </c>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/597/original/pic.jpg</v>
+      </c>
       <c r="E12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="1">
+        <v>224</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="1">
         <v>42610.404861111114</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>42610.679861111108</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>42610.404861111114</v>
       </c>
-      <c r="I12" t="s">
-        <v>38</v>
-      </c>
       <c r="J12" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="1">
         <v>42610.679861111108</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>75</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>76</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
       <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
         <v>2</v>
       </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
         <v>2</v>
       </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
       <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
         <v>5</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>3</v>
       </c>
-      <c r="V12">
-        <v>1</v>
-      </c>
       <c r="W12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12">
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
         <v>40</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>42</v>
       </c>
-      <c r="AB12">
-        <v>1</v>
-      </c>
       <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
         <v>106</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>103</v>
       </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
       <c r="AG12">
-        <v>1</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>1</v>
       </c>
       <c r="AJ12" t="s">
         <v>41</v>
       </c>
-      <c r="AK12" s="1">
+      <c r="AK12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL12" s="1">
         <v>42610.446527777778</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AM12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>599</v>
       </c>
@@ -2730,104 +2814,111 @@
       <c r="C13" t="s">
         <v>67</v>
       </c>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/599/original/pic.jpg</v>
+      </c>
       <c r="E13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="1">
+        <v>175</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="1">
         <v>42610.44027777778</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>42610.716666666667</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>42610.44027777778</v>
       </c>
-      <c r="I13" t="s">
-        <v>38</v>
-      </c>
       <c r="J13" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="1">
         <v>42610.716666666667</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>77</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>78</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>40</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>50</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
       <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>30</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>35</v>
       </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
       <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
         <v>50</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>55</v>
       </c>
-      <c r="V13">
-        <v>1</v>
-      </c>
       <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
         <v>5</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>11</v>
       </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
       <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
         <v>900</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>836</v>
       </c>
-      <c r="AB13">
-        <v>1</v>
-      </c>
       <c r="AC13">
+        <v>1</v>
+      </c>
+      <c r="AD13">
         <v>103</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>143</v>
       </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
       <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
         <v>0.6</v>
       </c>
-      <c r="AI13" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ13" t="s">
         <v>41</v>
       </c>
-      <c r="AK13" s="1">
+      <c r="AK13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL13" s="1">
         <v>42610.481944444444</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AM13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>602</v>
       </c>
@@ -2837,104 +2928,111 @@
       <c r="C14" t="s">
         <v>37</v>
       </c>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/602/original/pic.jpg</v>
+      </c>
       <c r="E14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="1">
+        <v>167</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="1">
         <v>42610.65625</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>42610.811805555553</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>42610.65625</v>
       </c>
-      <c r="I14" t="s">
-        <v>38</v>
-      </c>
       <c r="J14" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="1">
         <v>42610.811111111114</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>46</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>47</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>20</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>15</v>
       </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
       <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
         <v>5</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>6</v>
       </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
       <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
         <v>40</v>
       </c>
-      <c r="U14">
-        <v>41</v>
-      </c>
       <c r="V14">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="W14">
         <v>1</v>
       </c>
       <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
         <v>5</v>
       </c>
-      <c r="Y14">
-        <v>1</v>
-      </c>
       <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
         <v>450</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>452</v>
       </c>
-      <c r="AB14">
-        <v>1</v>
-      </c>
       <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
         <v>105</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>127</v>
       </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
       <c r="AG14">
-        <v>1</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>1</v>
       </c>
       <c r="AJ14" t="s">
         <v>41</v>
       </c>
-      <c r="AK14" s="1">
+      <c r="AK14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL14" s="1">
         <v>42610.697916666664</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AM14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>604</v>
       </c>
@@ -2944,104 +3042,111 @@
       <c r="C15" t="s">
         <v>57</v>
       </c>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/604/original/pic.jpg</v>
+      </c>
       <c r="E15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="1">
+        <v>194</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="1">
         <v>42610.78402777778</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>42611.751388888886</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>42610.78402777778</v>
       </c>
-      <c r="I15" t="s">
-        <v>38</v>
-      </c>
       <c r="J15" t="s">
         <v>38</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="1">
         <v>42611.751388888886</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>79</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>80</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>25</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>27</v>
       </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
       <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
         <v>25</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>31</v>
       </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
       <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
         <v>25</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>27</v>
       </c>
-      <c r="V15">
-        <v>1</v>
-      </c>
       <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
         <v>5</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>9</v>
       </c>
-      <c r="Y15">
-        <v>1</v>
-      </c>
       <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
         <v>500</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>475</v>
       </c>
-      <c r="AB15">
-        <v>1</v>
-      </c>
       <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
         <v>97</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>133</v>
       </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
       <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
         <v>0.8</v>
       </c>
-      <c r="AI15" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ15" t="s">
         <v>41</v>
       </c>
-      <c r="AK15" s="1">
+      <c r="AK15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL15" s="1">
         <v>42610.825694444444</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AM15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>607</v>
       </c>
@@ -3051,104 +3156,111 @@
       <c r="C16" t="s">
         <v>67</v>
       </c>
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/607/original/pic.jpg</v>
+      </c>
       <c r="E16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="1">
+        <v>176</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="1">
         <v>42611.304861111108</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>42611.794444444444</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>42611.304861111108</v>
       </c>
-      <c r="I16" t="s">
-        <v>38</v>
-      </c>
       <c r="J16" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" s="1">
         <v>42611.794444444444</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>81</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>82</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>50</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>43</v>
       </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
       <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>35</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>25</v>
       </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
       <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
         <v>55</v>
       </c>
-      <c r="U16">
-        <v>38</v>
-      </c>
       <c r="V16">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
         <v>10</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>9</v>
       </c>
-      <c r="Y16">
-        <v>1</v>
-      </c>
       <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
         <v>850</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>615</v>
       </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
       <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
         <v>97</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>152</v>
       </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
       <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
         <v>0.2</v>
       </c>
-      <c r="AI16" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ16" t="s">
         <v>41</v>
       </c>
-      <c r="AK16" s="1">
+      <c r="AK16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL16" s="1">
         <v>42611.34652777778</v>
       </c>
-      <c r="AL16" t="s">
+      <c r="AM16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>610</v>
       </c>
@@ -3158,104 +3270,111 @@
       <c r="C17" t="s">
         <v>60</v>
       </c>
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/610/original/pic.jpg</v>
+      </c>
       <c r="E17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="1">
+        <v>216</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="1">
         <v>42611.515972222223</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>42611.82708333333</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>42611.515972222223</v>
       </c>
-      <c r="I17" t="s">
-        <v>38</v>
-      </c>
       <c r="J17" t="s">
         <v>38</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="1">
         <v>42611.82708333333</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>83</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>84</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>20</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>26</v>
       </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
       <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>20</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>37</v>
       </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
       <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
         <v>20</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>23</v>
       </c>
-      <c r="V17">
-        <v>1</v>
-      </c>
       <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
         <v>5</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>6</v>
       </c>
-      <c r="Y17">
-        <v>1</v>
-      </c>
       <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17">
         <v>400</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>459</v>
       </c>
-      <c r="AB17">
-        <v>1</v>
-      </c>
       <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
         <v>110</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>138</v>
       </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
       <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
         <v>0.6</v>
       </c>
-      <c r="AI17" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ17" t="s">
         <v>41</v>
       </c>
-      <c r="AK17" s="1">
+      <c r="AK17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL17" s="1">
         <v>42611.557638888888</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AM17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>614</v>
       </c>
@@ -3265,104 +3384,111 @@
       <c r="C18" t="s">
         <v>37</v>
       </c>
+      <c r="D18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/614/original/pic.jpg</v>
+      </c>
       <c r="E18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="1">
+        <v>168</v>
+      </c>
+      <c r="F18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="1">
         <v>42611.646527777775</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>42612.783333333333</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>42611.646527777775</v>
       </c>
-      <c r="I18" t="s">
-        <v>38</v>
-      </c>
       <c r="J18" t="s">
         <v>38</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="1">
         <v>42612.783333333333</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>48</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>49</v>
-      </c>
-      <c r="N18">
-        <v>10</v>
       </c>
       <c r="O18">
         <v>10</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R18">
         <v>2</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U18">
         <v>8</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="W18">
         <v>1</v>
       </c>
       <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
         <v>2</v>
       </c>
-      <c r="Y18">
-        <v>1</v>
-      </c>
       <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
         <v>80</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>116</v>
       </c>
-      <c r="AB18">
-        <v>1</v>
-      </c>
       <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
         <v>117</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>127</v>
       </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
       <c r="AG18">
-        <v>1</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>1</v>
       </c>
       <c r="AJ18" t="s">
         <v>41</v>
       </c>
-      <c r="AK18" s="1">
+      <c r="AK18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL18" s="1">
         <v>42611.688194444447</v>
       </c>
-      <c r="AL18" t="s">
+      <c r="AM18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>621</v>
       </c>
@@ -3372,104 +3498,111 @@
       <c r="C19" t="s">
         <v>57</v>
       </c>
+      <c r="D19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/621/original/pic.jpg</v>
+      </c>
       <c r="E19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="1">
+        <v>195</v>
+      </c>
+      <c r="F19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="1">
         <v>42611.837500000001</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>42612.863194444442</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>42611.837500000001</v>
       </c>
-      <c r="I19" t="s">
-        <v>38</v>
-      </c>
       <c r="J19" t="s">
         <v>38</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="1">
         <v>42612.863194444442</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>85</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>86</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>20</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>29</v>
       </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
       <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
         <v>30</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>36</v>
       </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
       <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
         <v>35</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>33</v>
       </c>
-      <c r="V19">
-        <v>1</v>
-      </c>
       <c r="W19">
         <v>1</v>
       </c>
       <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
         <v>3</v>
       </c>
-      <c r="Y19">
-        <v>1</v>
-      </c>
       <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
         <v>600</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>678</v>
       </c>
-      <c r="AB19">
-        <v>1</v>
-      </c>
       <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
         <v>98</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>130</v>
       </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
       <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
         <v>0.6</v>
       </c>
-      <c r="AI19" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ19" t="s">
         <v>41</v>
       </c>
-      <c r="AK19" s="1">
+      <c r="AK19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL19" s="1">
         <v>42611.879166666666</v>
       </c>
-      <c r="AL19" t="s">
+      <c r="AM19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>624</v>
       </c>
@@ -3479,104 +3612,111 @@
       <c r="C20" t="s">
         <v>67</v>
       </c>
+      <c r="D20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/624/original/pic.jpg</v>
+      </c>
       <c r="E20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="1">
+        <v>177</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="1">
         <v>42612.359722222223</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>42613.393750000003</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>42612.359722222223</v>
       </c>
-      <c r="I20" t="s">
-        <v>38</v>
-      </c>
       <c r="J20" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" s="1">
         <v>42613.393750000003</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>87</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>88</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>45</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>43</v>
       </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
       <c r="Q20">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R20">
         <v>25</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
         <v>45</v>
       </c>
-      <c r="U20">
-        <v>38</v>
-      </c>
       <c r="V20">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
         <v>10</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>9</v>
       </c>
-      <c r="Y20">
-        <v>1</v>
-      </c>
       <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
         <v>700</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>608</v>
       </c>
-      <c r="AB20">
-        <v>1</v>
-      </c>
       <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
         <v>108</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>102</v>
       </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
       <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
         <v>0.8</v>
       </c>
-      <c r="AI20" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ20" t="s">
         <v>41</v>
       </c>
-      <c r="AK20" s="1">
+      <c r="AK20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL20" s="1">
         <v>42612.401388888888</v>
       </c>
-      <c r="AL20" t="s">
+      <c r="AM20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>626</v>
       </c>
@@ -3586,104 +3726,111 @@
       <c r="C21" t="s">
         <v>60</v>
       </c>
+      <c r="D21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/626/original/pic.jpg</v>
+      </c>
       <c r="E21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="1">
+        <v>217</v>
+      </c>
+      <c r="F21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="1">
         <v>42612.570138888892</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>42613.438194444447</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>42612.570138888892</v>
       </c>
-      <c r="I21" t="s">
-        <v>38</v>
-      </c>
       <c r="J21" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="1">
         <v>42613.438194444447</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>89</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>90</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>20</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>22</v>
       </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
       <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
         <v>20</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>47</v>
       </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
       <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
         <v>30</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>31</v>
       </c>
-      <c r="V21">
-        <v>1</v>
-      </c>
       <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
         <v>5</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>14</v>
       </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
       <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
         <v>500</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>554</v>
       </c>
-      <c r="AB21">
-        <v>1</v>
-      </c>
       <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
         <v>105</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>133</v>
       </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
       <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
         <v>0.6</v>
       </c>
-      <c r="AI21" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ21" t="s">
         <v>41</v>
       </c>
-      <c r="AK21" s="1">
+      <c r="AK21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL21" s="1">
         <v>42612.611805555556</v>
       </c>
-      <c r="AL21" t="s">
+      <c r="AM21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>631</v>
       </c>
@@ -3693,104 +3840,111 @@
       <c r="C22" t="s">
         <v>57</v>
       </c>
+      <c r="D22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/631/original/pic.jpg</v>
+      </c>
       <c r="E22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="1">
+        <v>196</v>
+      </c>
+      <c r="F22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="1">
         <v>42612.82916666667</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>42613.672222222223</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>42612.82916666667</v>
       </c>
-      <c r="I22" t="s">
-        <v>38</v>
-      </c>
       <c r="J22" t="s">
         <v>38</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22" s="1">
         <v>42613.672222222223</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>91</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>92</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>30</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>28</v>
       </c>
-      <c r="P22">
-        <v>1</v>
-      </c>
       <c r="Q22">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="R22">
         <v>20</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="T22">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="U22">
         <v>17</v>
       </c>
       <c r="V22">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="W22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X22">
         <v>5</v>
       </c>
       <c r="Y22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
         <v>500</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>403</v>
       </c>
-      <c r="AB22">
-        <v>1</v>
-      </c>
       <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
         <v>105</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>139</v>
       </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
       <c r="AG22">
-        <v>1</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>1</v>
       </c>
       <c r="AJ22" t="s">
         <v>41</v>
       </c>
-      <c r="AK22" s="1">
+      <c r="AK22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL22" s="1">
         <v>42612.870833333334</v>
       </c>
-      <c r="AL22" t="s">
+      <c r="AM22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>635</v>
       </c>
@@ -3800,104 +3954,111 @@
       <c r="C23" t="s">
         <v>67</v>
       </c>
+      <c r="D23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/635/original/pic.jpg</v>
+      </c>
       <c r="E23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="1">
+        <v>178</v>
+      </c>
+      <c r="F23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="1">
         <v>42613.305555555555</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>42616.775694444441</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>42613.305555555555</v>
       </c>
-      <c r="I23" t="s">
-        <v>38</v>
-      </c>
       <c r="J23" t="s">
         <v>38</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="1">
         <v>42616.775694444441</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>93</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>94</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>45</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>44</v>
       </c>
-      <c r="P23">
-        <v>1</v>
-      </c>
       <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
         <v>25</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>27</v>
       </c>
-      <c r="S23">
-        <v>1</v>
-      </c>
       <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
         <v>45</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>39</v>
       </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
       <c r="W23">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="X23">
         <v>9</v>
       </c>
       <c r="Y23">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
         <v>750</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>635</v>
       </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
       <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
         <v>91</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>136</v>
       </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
       <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
         <v>0.6</v>
       </c>
-      <c r="AI23" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ23" t="s">
         <v>41</v>
       </c>
-      <c r="AK23" s="1">
+      <c r="AK23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL23" s="1">
         <v>42613.347222222219</v>
       </c>
-      <c r="AL23" t="s">
+      <c r="AM23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>638</v>
       </c>
@@ -3907,104 +4068,111 @@
       <c r="C24" t="s">
         <v>60</v>
       </c>
+      <c r="D24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/638/original/pic.jpg</v>
+      </c>
       <c r="E24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="1">
+        <v>218</v>
+      </c>
+      <c r="F24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="1">
         <v>42613.564583333333</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>42617.541666666664</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>42613.56527777778</v>
       </c>
-      <c r="I24" t="s">
-        <v>38</v>
-      </c>
       <c r="J24" t="s">
         <v>38</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24" s="1">
         <v>42617.541666666664</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>95</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>96</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>20</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>25</v>
       </c>
-      <c r="P24">
-        <v>1</v>
-      </c>
       <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
         <v>20</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>26</v>
       </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
       <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
         <v>20</v>
       </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
       <c r="V24">
         <v>0</v>
       </c>
       <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
         <v>5</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>3</v>
       </c>
-      <c r="Y24">
-        <v>1</v>
-      </c>
       <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
         <v>450</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>437</v>
       </c>
-      <c r="AB24">
-        <v>1</v>
-      </c>
       <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
         <v>101</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>142</v>
       </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
       <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
         <v>0.6</v>
       </c>
-      <c r="AI24" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ24" t="s">
         <v>41</v>
       </c>
-      <c r="AK24" s="1">
+      <c r="AK24" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL24" s="1">
         <v>42613.606249999997</v>
       </c>
-      <c r="AL24" t="s">
+      <c r="AM24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>642</v>
       </c>
@@ -4014,104 +4182,111 @@
       <c r="C25" t="s">
         <v>37</v>
       </c>
+      <c r="D25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/642/original/pic.jpg</v>
+      </c>
       <c r="E25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="1">
+        <v>169</v>
+      </c>
+      <c r="F25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="1">
         <v>42613.665972222225</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>42617.813194444447</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <v>42613.665972222225</v>
       </c>
-      <c r="I25" t="s">
-        <v>38</v>
-      </c>
       <c r="J25" t="s">
         <v>38</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" s="1">
         <v>42617.813194444447</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>50</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>51</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>18</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>19</v>
       </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
       <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
         <v>2</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>3</v>
       </c>
-      <c r="S25">
-        <v>1</v>
-      </c>
       <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
         <v>13</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>8</v>
       </c>
-      <c r="V25">
-        <v>1</v>
-      </c>
       <c r="W25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>1</v>
       </c>
       <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
         <v>200</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>159</v>
       </c>
-      <c r="AB25">
-        <v>1</v>
-      </c>
       <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
         <v>119</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>160</v>
       </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
       <c r="AG25">
-        <v>1</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>1</v>
       </c>
       <c r="AJ25" t="s">
         <v>41</v>
       </c>
-      <c r="AK25" s="1">
+      <c r="AK25" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL25" s="1">
         <v>42613.707638888889</v>
       </c>
-      <c r="AL25" t="s">
+      <c r="AM25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>645</v>
       </c>
@@ -4121,104 +4296,111 @@
       <c r="C26" t="s">
         <v>57</v>
       </c>
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/645/original/pic.jpg</v>
+      </c>
       <c r="E26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="1">
+        <v>197</v>
+      </c>
+      <c r="F26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="1">
         <v>42613.793055555558</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <v>42617.845138888886</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
         <v>42613.793055555558</v>
       </c>
-      <c r="I26" t="s">
-        <v>38</v>
-      </c>
       <c r="J26" t="s">
         <v>38</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26" s="1">
         <v>42617.845138888886</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>97</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>98</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>35</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>51</v>
       </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
       <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
         <v>15</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>36</v>
       </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
       <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
         <v>15</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>11</v>
       </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
       <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
         <v>5</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>13</v>
       </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
       <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
         <v>450</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>452</v>
       </c>
-      <c r="AB26">
-        <v>1</v>
-      </c>
       <c r="AC26">
+        <v>1</v>
+      </c>
+      <c r="AD26">
         <v>111</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>120</v>
       </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
       <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
         <v>0.4</v>
       </c>
-      <c r="AI26" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ26" t="s">
         <v>41</v>
       </c>
-      <c r="AK26" s="1">
+      <c r="AK26" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL26" s="1">
         <v>42613.834722222222</v>
       </c>
-      <c r="AL26" t="s">
+      <c r="AM26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>644</v>
       </c>
@@ -4228,104 +4410,111 @@
       <c r="C27" t="s">
         <v>37</v>
       </c>
+      <c r="D27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/644/original/pic.jpg</v>
+      </c>
       <c r="E27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="1">
+        <v>170</v>
+      </c>
+      <c r="F27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="1">
         <v>42613.780555555553</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H27" s="1">
         <v>42617.823611111111</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
         <v>42613.780555555553</v>
       </c>
-      <c r="I27" t="s">
-        <v>38</v>
-      </c>
       <c r="J27" t="s">
         <v>38</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" t="s">
+        <v>38</v>
+      </c>
+      <c r="L27" s="1">
         <v>42617.823611111111</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>52</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>53</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>5</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>4</v>
       </c>
-      <c r="P27">
-        <v>1</v>
-      </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27">
         <v>0</v>
       </c>
       <c r="S27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27">
         <v>0</v>
       </c>
       <c r="V27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27">
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27">
+        <v>1</v>
+      </c>
+      <c r="AA27">
         <v>200</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>125</v>
       </c>
-      <c r="AB27">
-        <v>1</v>
-      </c>
       <c r="AC27">
+        <v>1</v>
+      </c>
+      <c r="AD27">
         <v>117</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>111</v>
       </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
       <c r="AG27">
-        <v>1</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>1</v>
       </c>
       <c r="AJ27" t="s">
         <v>41</v>
       </c>
-      <c r="AK27" s="1">
+      <c r="AK27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL27" s="1">
         <v>42613.822222222225</v>
       </c>
-      <c r="AL27" t="s">
+      <c r="AM27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>648</v>
       </c>
@@ -4335,104 +4524,111 @@
       <c r="C28" t="s">
         <v>67</v>
       </c>
+      <c r="D28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/648/original/pic.jpg</v>
+      </c>
       <c r="E28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="1">
+        <v>179</v>
+      </c>
+      <c r="F28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="1">
         <v>42614.351388888892</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H28" s="1">
         <v>42617.931944444441</v>
       </c>
-      <c r="H28" s="1">
+      <c r="I28" s="1">
         <v>42614.351388888892</v>
       </c>
-      <c r="I28" t="s">
-        <v>38</v>
-      </c>
       <c r="J28" t="s">
         <v>38</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" t="s">
+        <v>38</v>
+      </c>
+      <c r="L28" s="1">
         <v>42617.931944444441</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>99</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>100</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>45</v>
       </c>
-      <c r="O28">
-        <v>41</v>
-      </c>
       <c r="P28">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
         <v>25</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>21</v>
       </c>
-      <c r="S28">
-        <v>1</v>
-      </c>
       <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
         <v>45</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>19</v>
       </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
       <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
         <v>10</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>3</v>
       </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
       <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
         <v>700</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>581</v>
       </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
       <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
         <v>102</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>147</v>
       </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
       <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
         <v>0.4</v>
       </c>
-      <c r="AI28" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ28" t="s">
         <v>41</v>
       </c>
-      <c r="AK28" s="1">
+      <c r="AK28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL28" s="1">
         <v>42614.393055555556</v>
       </c>
-      <c r="AL28" t="s">
+      <c r="AM28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>655</v>
       </c>
@@ -4442,104 +4638,111 @@
       <c r="C29" t="s">
         <v>37</v>
       </c>
+      <c r="D29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/655/original/pic.jpg</v>
+      </c>
       <c r="E29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="1">
+        <v>171</v>
+      </c>
+      <c r="F29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="1">
         <v>42614.847916666666</v>
       </c>
-      <c r="G29" s="1">
+      <c r="H29" s="1">
         <v>42618.384027777778</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I29" s="1">
         <v>42614.849305555559</v>
       </c>
-      <c r="I29" t="s">
-        <v>38</v>
-      </c>
       <c r="J29" t="s">
         <v>38</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" t="s">
+        <v>38</v>
+      </c>
+      <c r="L29" s="1">
         <v>42618.384027777778</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>54</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>55</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>6</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>4</v>
       </c>
-      <c r="P29">
-        <v>1</v>
-      </c>
       <c r="Q29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29">
         <v>0</v>
       </c>
       <c r="S29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29">
         <v>0</v>
       </c>
       <c r="V29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29">
         <v>0</v>
       </c>
       <c r="Y29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AA29">
         <v>200</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>149</v>
       </c>
-      <c r="AB29">
-        <v>1</v>
-      </c>
       <c r="AC29">
+        <v>1</v>
+      </c>
+      <c r="AD29">
         <v>102</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>97</v>
       </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
       <c r="AG29">
-        <v>1</v>
-      </c>
-      <c r="AI29" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>1</v>
       </c>
       <c r="AJ29" t="s">
         <v>41</v>
       </c>
-      <c r="AK29" s="1">
+      <c r="AK29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL29" s="1">
         <v>42614.88958333333</v>
       </c>
-      <c r="AL29" t="s">
+      <c r="AM29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>656</v>
       </c>
@@ -4549,104 +4752,111 @@
       <c r="C30" t="s">
         <v>57</v>
       </c>
+      <c r="D30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/656/original/pic.jpg</v>
+      </c>
       <c r="E30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="1">
+        <v>198</v>
+      </c>
+      <c r="F30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="1">
         <v>42614.854861111111</v>
       </c>
-      <c r="G30" s="1">
+      <c r="H30" s="1">
         <v>42618.39166666667</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <v>42614.854861111111</v>
       </c>
-      <c r="I30" t="s">
-        <v>38</v>
-      </c>
       <c r="J30" t="s">
         <v>38</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" t="s">
+        <v>38</v>
+      </c>
+      <c r="L30" s="1">
         <v>42618.39166666667</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>101</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>102</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>15</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>30</v>
       </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
       <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
         <v>15</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>24</v>
       </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
       <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
         <v>15</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>20</v>
       </c>
-      <c r="V30">
-        <v>1</v>
-      </c>
       <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
         <v>5</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>7</v>
       </c>
-      <c r="Y30">
-        <v>1</v>
-      </c>
       <c r="Z30">
+        <v>1</v>
+      </c>
+      <c r="AA30">
         <v>250</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>436</v>
       </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
       <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
         <v>97</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>109</v>
       </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
       <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
         <v>0.4</v>
       </c>
-      <c r="AI30" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ30" t="s">
         <v>41</v>
       </c>
-      <c r="AK30" s="1">
+      <c r="AK30" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL30" s="1">
         <v>42614.896527777775</v>
       </c>
-      <c r="AL30" t="s">
+      <c r="AM30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>659</v>
       </c>
@@ -4656,104 +4866,111 @@
       <c r="C31" t="s">
         <v>67</v>
       </c>
+      <c r="D31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/659/original/pic.jpg</v>
+      </c>
       <c r="E31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="1">
+        <v>180</v>
+      </c>
+      <c r="F31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="1">
         <v>42615.337500000001</v>
       </c>
-      <c r="G31" s="1">
+      <c r="H31" s="1">
         <v>42618.433333333334</v>
       </c>
-      <c r="H31" s="1">
+      <c r="I31" s="1">
         <v>42615.338194444441</v>
       </c>
-      <c r="I31" t="s">
-        <v>38</v>
-      </c>
       <c r="J31" t="s">
         <v>38</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" t="s">
+        <v>38</v>
+      </c>
+      <c r="L31" s="1">
         <v>42618.433333333334</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>103</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>104</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>45</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>65</v>
       </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
       <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
         <v>25</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>29</v>
       </c>
-      <c r="S31">
-        <v>1</v>
-      </c>
       <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
         <v>45</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>19</v>
       </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
       <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
         <v>10</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>6</v>
       </c>
-      <c r="Y31">
-        <v>1</v>
-      </c>
       <c r="Z31">
+        <v>1</v>
+      </c>
+      <c r="AA31">
         <v>700</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>539</v>
       </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
       <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
         <v>96</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>130</v>
       </c>
-      <c r="AF31">
-        <v>0</v>
-      </c>
       <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
         <v>0.4</v>
       </c>
-      <c r="AI31" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ31" t="s">
         <v>41</v>
       </c>
-      <c r="AK31" s="1">
+      <c r="AK31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL31" s="1">
         <v>42615.379166666666</v>
       </c>
-      <c r="AL31" t="s">
+      <c r="AM31" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>661</v>
       </c>
@@ -4763,104 +4980,111 @@
       <c r="C32" t="s">
         <v>60</v>
       </c>
+      <c r="D32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/661/original/pic.jpg</v>
+      </c>
       <c r="E32" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="1">
+        <v>219</v>
+      </c>
+      <c r="F32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="1">
         <v>42615.527083333334</v>
       </c>
-      <c r="G32" s="1">
+      <c r="H32" s="1">
         <v>42618.616666666669</v>
       </c>
-      <c r="H32" s="1">
+      <c r="I32" s="1">
         <v>42615.527083333334</v>
       </c>
-      <c r="I32" t="s">
-        <v>38</v>
-      </c>
       <c r="J32" t="s">
         <v>38</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32" s="1">
         <v>42618.616666666669</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>105</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>106</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>25</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>22</v>
       </c>
-      <c r="P32">
-        <v>1</v>
-      </c>
       <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
         <v>20</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>30</v>
       </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
       <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
         <v>25</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>36</v>
       </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
       <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
         <v>5</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>3</v>
       </c>
-      <c r="Y32">
-        <v>1</v>
-      </c>
       <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AA32">
         <v>900</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>455</v>
       </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
       <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
         <v>94</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>120</v>
       </c>
-      <c r="AF32">
-        <v>0</v>
-      </c>
       <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
         <v>0.4</v>
       </c>
-      <c r="AI32" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ32" t="s">
         <v>41</v>
       </c>
-      <c r="AK32" s="1">
+      <c r="AK32" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL32" s="1">
         <v>42615.568749999999</v>
       </c>
-      <c r="AL32" t="s">
+      <c r="AM32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>667</v>
       </c>
@@ -4870,104 +5094,111 @@
       <c r="C33" t="s">
         <v>37</v>
       </c>
+      <c r="D33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/667/original/pic.jpg</v>
+      </c>
       <c r="E33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="1">
+        <v>172</v>
+      </c>
+      <c r="F33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="1">
         <v>42615.804861111108</v>
       </c>
-      <c r="G33" s="1">
+      <c r="H33" s="1">
         <v>42618.936805555553</v>
       </c>
-      <c r="H33" s="1">
+      <c r="I33" s="1">
         <v>42615.804861111108</v>
       </c>
-      <c r="I33" t="s">
-        <v>38</v>
-      </c>
       <c r="J33" t="s">
         <v>38</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" t="s">
+        <v>38</v>
+      </c>
+      <c r="L33" s="1">
         <v>42618.936805555553</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>52</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>56</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>5</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>3</v>
       </c>
-      <c r="P33">
-        <v>1</v>
-      </c>
       <c r="Q33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33">
         <v>0</v>
       </c>
       <c r="S33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33">
         <v>0</v>
       </c>
       <c r="V33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33">
         <v>0</v>
       </c>
       <c r="Y33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z33">
+        <v>1</v>
+      </c>
+      <c r="AA33">
         <v>120</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>101</v>
       </c>
-      <c r="AB33">
-        <v>1</v>
-      </c>
       <c r="AC33">
+        <v>1</v>
+      </c>
+      <c r="AD33">
         <v>122</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>117</v>
       </c>
-      <c r="AF33">
-        <v>0</v>
-      </c>
       <c r="AG33">
-        <v>1</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>1</v>
       </c>
       <c r="AJ33" t="s">
         <v>41</v>
       </c>
-      <c r="AK33" s="1">
+      <c r="AK33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL33" s="1">
         <v>42615.84652777778</v>
       </c>
-      <c r="AL33" t="s">
+      <c r="AM33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>668</v>
       </c>
@@ -4977,104 +5208,111 @@
       <c r="C34" t="s">
         <v>57</v>
       </c>
+      <c r="D34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/668/original/pic.jpg</v>
+      </c>
       <c r="E34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="1">
+        <v>199</v>
+      </c>
+      <c r="F34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="1">
         <v>42615.838888888888</v>
       </c>
-      <c r="G34" s="1">
+      <c r="H34" s="1">
         <v>42619.472916666666</v>
       </c>
-      <c r="H34" s="1">
+      <c r="I34" s="1">
         <v>42615.838888888888</v>
       </c>
-      <c r="I34" t="s">
-        <v>38</v>
-      </c>
       <c r="J34" t="s">
         <v>38</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" t="s">
+        <v>38</v>
+      </c>
+      <c r="L34" s="1">
         <v>42619.472222222219</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>107</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>108</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>31</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>22</v>
       </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
       <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
         <v>39</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>15</v>
       </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
       <c r="T34">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U34">
         <v>30</v>
       </c>
       <c r="V34">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34">
         <v>12</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>7</v>
       </c>
-      <c r="Y34">
-        <v>1</v>
-      </c>
       <c r="Z34">
+        <v>1</v>
+      </c>
+      <c r="AA34">
         <v>540</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>401</v>
       </c>
-      <c r="AB34">
-        <v>0</v>
-      </c>
       <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
         <v>117</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>119</v>
       </c>
-      <c r="AF34">
-        <v>0</v>
-      </c>
       <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
         <v>0.4</v>
       </c>
-      <c r="AI34" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ34" t="s">
         <v>41</v>
       </c>
-      <c r="AK34" s="1">
+      <c r="AK34" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL34" s="1">
         <v>42615.880555555559</v>
       </c>
-      <c r="AL34" t="s">
+      <c r="AM34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>671</v>
       </c>
@@ -5084,104 +5322,111 @@
       <c r="C35" t="s">
         <v>67</v>
       </c>
+      <c r="D35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/671/original/pic.jpg</v>
+      </c>
       <c r="E35" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35" s="1">
+        <v>181</v>
+      </c>
+      <c r="F35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="1">
         <v>42616.402777777781</v>
       </c>
-      <c r="G35" s="1">
+      <c r="H35" s="1">
         <v>42619.495833333334</v>
       </c>
-      <c r="H35" s="1">
+      <c r="I35" s="1">
         <v>42616.402777777781</v>
       </c>
-      <c r="I35" t="s">
-        <v>38</v>
-      </c>
       <c r="J35" t="s">
         <v>38</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" t="s">
+        <v>38</v>
+      </c>
+      <c r="L35" s="1">
         <v>42619.495833333334</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>109</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>110</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>45</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>44</v>
       </c>
-      <c r="P35">
-        <v>1</v>
-      </c>
       <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
         <v>25</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>27</v>
       </c>
-      <c r="S35">
-        <v>1</v>
-      </c>
       <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
         <v>45</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>39</v>
       </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
       <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
         <v>10</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>9</v>
       </c>
-      <c r="Y35">
-        <v>1</v>
-      </c>
       <c r="Z35">
+        <v>1</v>
+      </c>
+      <c r="AA35">
         <v>700</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>635</v>
       </c>
-      <c r="AB35">
-        <v>1</v>
-      </c>
       <c r="AC35">
+        <v>1</v>
+      </c>
+      <c r="AD35">
         <v>99</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>127</v>
       </c>
-      <c r="AF35">
-        <v>0</v>
-      </c>
       <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
         <v>0.8</v>
       </c>
-      <c r="AI35" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ35" t="s">
         <v>41</v>
       </c>
-      <c r="AK35" s="1">
+      <c r="AK35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL35" s="1">
         <v>42616.444444444445</v>
       </c>
-      <c r="AL35" t="s">
+      <c r="AM35" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>673</v>
       </c>
@@ -5191,104 +5436,111 @@
       <c r="C36" t="s">
         <v>60</v>
       </c>
+      <c r="D36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/673/original/pic.jpg</v>
+      </c>
       <c r="E36" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="1">
+        <v>220</v>
+      </c>
+      <c r="F36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="1">
         <v>42616.629166666666</v>
       </c>
-      <c r="G36" s="1">
+      <c r="H36" s="1">
         <v>42619.880555555559</v>
       </c>
-      <c r="H36" s="1">
+      <c r="I36" s="1">
         <v>42616.629861111112</v>
       </c>
-      <c r="I36" t="s">
-        <v>38</v>
-      </c>
       <c r="J36" t="s">
         <v>38</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36" s="1">
         <v>42619.880555555559</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>111</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>112</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>25</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>24</v>
       </c>
-      <c r="P36">
-        <v>1</v>
-      </c>
       <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
         <v>30</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>14</v>
       </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
       <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
         <v>25</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>37</v>
       </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
       <c r="W36">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X36">
         <v>7</v>
       </c>
       <c r="Y36">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z36">
+        <v>1</v>
+      </c>
+      <c r="AA36">
         <v>500</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>521</v>
       </c>
-      <c r="AB36">
-        <v>1</v>
-      </c>
       <c r="AC36">
+        <v>1</v>
+      </c>
+      <c r="AD36">
         <v>107</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>125</v>
       </c>
-      <c r="AF36">
-        <v>0</v>
-      </c>
       <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
         <v>0.6</v>
       </c>
-      <c r="AI36" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ36" t="s">
         <v>41</v>
       </c>
-      <c r="AK36" s="1">
+      <c r="AK36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL36" s="1">
         <v>42616.67083333333</v>
       </c>
-      <c r="AL36" t="s">
+      <c r="AM36" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>675</v>
       </c>
@@ -5298,104 +5550,111 @@
       <c r="C37" t="s">
         <v>57</v>
       </c>
+      <c r="D37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/675/original/pic.jpg</v>
+      </c>
       <c r="E37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37" s="1">
+        <v>200</v>
+      </c>
+      <c r="F37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="1">
         <v>42616.84097222222</v>
       </c>
-      <c r="G37" s="1">
+      <c r="H37" s="1">
         <v>42619.901388888888</v>
       </c>
-      <c r="H37" s="1">
+      <c r="I37" s="1">
         <v>42616.84097222222</v>
       </c>
-      <c r="I37" t="s">
-        <v>38</v>
-      </c>
       <c r="J37" t="s">
         <v>38</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37" t="s">
+        <v>38</v>
+      </c>
+      <c r="L37" s="1">
         <v>42619.901388888888</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>113</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>114</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>40</v>
       </c>
-      <c r="O37">
-        <v>38</v>
-      </c>
       <c r="P37">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
         <v>35</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>23</v>
       </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
       <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
         <v>30</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>19</v>
       </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
       <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
         <v>5</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>7</v>
       </c>
-      <c r="Y37">
-        <v>1</v>
-      </c>
       <c r="Z37">
+        <v>1</v>
+      </c>
+      <c r="AA37">
         <v>750</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>509</v>
       </c>
-      <c r="AB37">
-        <v>0</v>
-      </c>
       <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
         <v>118</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>125</v>
       </c>
-      <c r="AF37">
-        <v>0</v>
-      </c>
       <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
         <v>0.4</v>
       </c>
-      <c r="AI37" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ37" t="s">
         <v>41</v>
       </c>
-      <c r="AK37" s="1">
+      <c r="AK37" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL37" s="1">
         <v>42616.882638888892</v>
       </c>
-      <c r="AL37" t="s">
+      <c r="AM37" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>678</v>
       </c>
@@ -5405,104 +5664,111 @@
       <c r="C38" t="s">
         <v>115</v>
       </c>
+      <c r="D38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/678/original/pic.jpg</v>
+      </c>
       <c r="E38" t="s">
-        <v>38</v>
-      </c>
-      <c r="F38" s="1">
+        <v>187</v>
+      </c>
+      <c r="F38" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="1">
         <v>42616.94027777778</v>
       </c>
-      <c r="G38" s="1">
+      <c r="H38" s="1">
         <v>42619.90902777778</v>
       </c>
-      <c r="H38" s="1">
+      <c r="I38" s="1">
         <v>42616.94027777778</v>
       </c>
-      <c r="I38" t="s">
-        <v>38</v>
-      </c>
       <c r="J38" t="s">
         <v>38</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" t="s">
+        <v>38</v>
+      </c>
+      <c r="L38" s="1">
         <v>42619.90902777778</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>116</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>117</v>
-      </c>
-      <c r="N38">
-        <v>20</v>
       </c>
       <c r="O38">
         <v>20</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
         <v>20</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>13</v>
       </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
       <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
         <v>10</v>
       </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
       <c r="V38">
         <v>0</v>
       </c>
       <c r="W38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X38">
         <v>2</v>
       </c>
       <c r="Y38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z38">
+        <v>1</v>
+      </c>
+      <c r="AA38">
         <v>250</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>142</v>
       </c>
-      <c r="AB38">
-        <v>0</v>
-      </c>
       <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
         <v>96</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>109</v>
       </c>
-      <c r="AF38">
-        <v>0</v>
-      </c>
       <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
         <v>0.4</v>
       </c>
-      <c r="AI38" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ38" t="s">
         <v>41</v>
       </c>
-      <c r="AK38" s="1">
+      <c r="AK38" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL38" s="1">
         <v>42616.981944444444</v>
       </c>
-      <c r="AL38" t="s">
+      <c r="AM38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>680</v>
       </c>
@@ -5512,104 +5778,111 @@
       <c r="C39" t="s">
         <v>67</v>
       </c>
+      <c r="D39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/680/original/pic.jpg</v>
+      </c>
       <c r="E39" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" s="1">
+        <v>182</v>
+      </c>
+      <c r="F39" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="1">
         <v>42617.367361111108</v>
       </c>
-      <c r="G39" s="1">
+      <c r="H39" s="1">
         <v>42619.943749999999</v>
       </c>
-      <c r="H39" s="1">
+      <c r="I39" s="1">
         <v>42617.367361111108</v>
       </c>
-      <c r="I39" t="s">
-        <v>38</v>
-      </c>
       <c r="J39" t="s">
         <v>38</v>
       </c>
-      <c r="K39" s="1">
+      <c r="K39" t="s">
+        <v>38</v>
+      </c>
+      <c r="L39" s="1">
         <v>42619.943749999999</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>109</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>118</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>45</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>53</v>
       </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
       <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
         <v>25</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>11</v>
       </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
       <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
         <v>45</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>23</v>
       </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
       <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
         <v>9</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>3</v>
       </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
       <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
         <v>700</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>467</v>
       </c>
-      <c r="AB39">
-        <v>0</v>
-      </c>
       <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
         <v>103</v>
       </c>
-      <c r="AE39">
+      <c r="AF39">
         <v>159</v>
       </c>
-      <c r="AF39">
-        <v>0</v>
-      </c>
       <c r="AG39">
         <v>0</v>
       </c>
-      <c r="AI39" t="s">
-        <v>41</v>
+      <c r="AH39">
+        <v>0</v>
       </c>
       <c r="AJ39" t="s">
         <v>41</v>
       </c>
-      <c r="AK39" s="1">
+      <c r="AK39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL39" s="1">
         <v>42617.40902777778</v>
       </c>
-      <c r="AL39" t="s">
+      <c r="AM39" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>687</v>
       </c>
@@ -5619,104 +5892,111 @@
       <c r="C40" t="s">
         <v>57</v>
       </c>
+      <c r="D40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/687/original/pic.jpg</v>
+      </c>
       <c r="E40" t="s">
-        <v>38</v>
-      </c>
-      <c r="F40" s="1">
+        <v>201</v>
+      </c>
+      <c r="F40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="1">
         <v>42617.819444444445</v>
       </c>
-      <c r="G40" s="1">
+      <c r="H40" s="1">
         <v>42623.538194444445</v>
       </c>
-      <c r="H40" s="1">
+      <c r="I40" s="1">
         <v>42617.819444444445</v>
       </c>
-      <c r="I40" t="s">
-        <v>38</v>
-      </c>
       <c r="J40" t="s">
         <v>38</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L40" s="1">
         <v>42623.538194444445</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>119</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>120</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>30</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>27</v>
       </c>
-      <c r="P40">
-        <v>1</v>
-      </c>
       <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
         <v>40</v>
       </c>
-      <c r="R40">
-        <v>38</v>
-      </c>
       <c r="S40">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40">
         <v>22</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>39</v>
       </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
       <c r="W40">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="X40">
         <v>12</v>
       </c>
       <c r="Y40">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="Z40">
+        <v>1</v>
+      </c>
+      <c r="AA40">
         <v>600</v>
       </c>
-      <c r="AA40">
+      <c r="AB40">
         <v>707</v>
       </c>
-      <c r="AB40">
-        <v>0</v>
-      </c>
       <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
         <v>109</v>
       </c>
-      <c r="AE40">
+      <c r="AF40">
         <v>124</v>
       </c>
-      <c r="AF40">
-        <v>0</v>
-      </c>
       <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
         <v>0.6</v>
       </c>
-      <c r="AI40" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ40" t="s">
         <v>41</v>
       </c>
-      <c r="AK40" s="1">
+      <c r="AK40" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL40" s="1">
         <v>42617.861111111109</v>
       </c>
-      <c r="AL40" t="s">
+      <c r="AM40" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>693</v>
       </c>
@@ -5726,101 +6006,108 @@
       <c r="C41" t="s">
         <v>115</v>
       </c>
+      <c r="D41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/693/original/pic.jpg</v>
+      </c>
       <c r="E41" t="s">
-        <v>38</v>
-      </c>
-      <c r="F41" s="1">
+        <v>188</v>
+      </c>
+      <c r="F41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="1">
         <v>42617.947222222225</v>
       </c>
-      <c r="G41" s="1">
+      <c r="H41" s="1">
         <v>42623.559027777781</v>
       </c>
-      <c r="H41" s="1">
+      <c r="I41" s="1">
         <v>42617.947222222225</v>
       </c>
-      <c r="I41" t="s">
-        <v>38</v>
-      </c>
       <c r="J41" t="s">
         <v>38</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K41" t="s">
+        <v>38</v>
+      </c>
+      <c r="L41" s="1">
         <v>42623.559027777781</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>121</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>122</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>10</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>8</v>
       </c>
-      <c r="P41">
-        <v>1</v>
-      </c>
       <c r="Q41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R41">
         <v>4</v>
       </c>
       <c r="S41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
         <v>12</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>10</v>
       </c>
-      <c r="V41">
-        <v>1</v>
-      </c>
       <c r="W41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X41">
         <v>2</v>
       </c>
       <c r="Y41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z41">
+        <v>1</v>
+      </c>
+      <c r="AA41">
         <v>150</v>
       </c>
-      <c r="AA41">
+      <c r="AB41">
         <v>128</v>
       </c>
-      <c r="AB41">
-        <v>1</v>
-      </c>
       <c r="AC41">
+        <v>1</v>
+      </c>
+      <c r="AD41">
         <v>95</v>
       </c>
-      <c r="AF41">
-        <v>0</v>
-      </c>
       <c r="AG41">
-        <v>1</v>
-      </c>
-      <c r="AI41" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>1</v>
       </c>
       <c r="AJ41" t="s">
         <v>41</v>
       </c>
-      <c r="AK41" s="1">
+      <c r="AK41" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL41" s="1">
         <v>42617.988888888889</v>
       </c>
-      <c r="AL41" t="s">
+      <c r="AM41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>696</v>
       </c>
@@ -5830,104 +6117,111 @@
       <c r="C42" t="s">
         <v>67</v>
       </c>
+      <c r="D42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/696/original/pic.jpg</v>
+      </c>
       <c r="E42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F42" s="1">
+        <v>183</v>
+      </c>
+      <c r="F42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" s="1">
         <v>42618.294444444444</v>
       </c>
-      <c r="G42" s="1">
+      <c r="H42" s="1">
         <v>42623.976388888892</v>
       </c>
-      <c r="H42" s="1">
+      <c r="I42" s="1">
         <v>42618.294444444444</v>
       </c>
-      <c r="I42" t="s">
-        <v>38</v>
-      </c>
       <c r="J42" t="s">
         <v>38</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K42" t="s">
+        <v>38</v>
+      </c>
+      <c r="L42" s="1">
         <v>42623.976388888892</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>123</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>124</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>40</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>63</v>
       </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
       <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
         <v>20</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>36</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
       <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
         <v>40</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>20</v>
       </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
       <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
         <v>10</v>
       </c>
-      <c r="X42">
+      <c r="Y42">
         <v>8</v>
       </c>
-      <c r="Y42">
-        <v>1</v>
-      </c>
       <c r="Z42">
+        <v>1</v>
+      </c>
+      <c r="AA42">
         <v>700</v>
       </c>
-      <c r="AA42">
+      <c r="AB42">
         <v>585</v>
       </c>
-      <c r="AB42">
-        <v>0</v>
-      </c>
       <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
         <v>85</v>
       </c>
-      <c r="AE42">
+      <c r="AF42">
         <v>141</v>
       </c>
-      <c r="AF42">
-        <v>0</v>
-      </c>
       <c r="AG42">
+        <v>0</v>
+      </c>
+      <c r="AH42">
         <v>0.2</v>
       </c>
-      <c r="AI42" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ42" t="s">
         <v>41</v>
       </c>
-      <c r="AK42" s="1">
+      <c r="AK42" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL42" s="1">
         <v>42618.336111111108</v>
       </c>
-      <c r="AL42" t="s">
+      <c r="AM42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>699</v>
       </c>
@@ -5937,104 +6231,111 @@
       <c r="C43" t="s">
         <v>60</v>
       </c>
+      <c r="D43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/699/original/pic.jpg</v>
+      </c>
       <c r="E43" t="s">
-        <v>38</v>
-      </c>
-      <c r="F43" s="1">
+        <v>221</v>
+      </c>
+      <c r="F43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="1">
         <v>42618.54583333333</v>
       </c>
-      <c r="G43" s="1">
+      <c r="H43" s="1">
         <v>42624.865277777775</v>
       </c>
-      <c r="H43" s="1">
+      <c r="I43" s="1">
         <v>42618.546527777777</v>
       </c>
-      <c r="I43" t="s">
-        <v>38</v>
-      </c>
       <c r="J43" t="s">
         <v>38</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K43" t="s">
+        <v>38</v>
+      </c>
+      <c r="L43" s="1">
         <v>42624.865277777775</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>125</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>126</v>
-      </c>
-      <c r="N43">
-        <v>25</v>
       </c>
       <c r="O43">
         <v>25</v>
       </c>
       <c r="P43">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
         <v>25</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>28</v>
       </c>
-      <c r="S43">
-        <v>1</v>
-      </c>
       <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43">
         <v>25</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>33</v>
       </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
       <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
         <v>5</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <v>7</v>
       </c>
-      <c r="Y43">
-        <v>1</v>
-      </c>
       <c r="Z43">
+        <v>1</v>
+      </c>
+      <c r="AA43">
         <v>450</v>
       </c>
-      <c r="AA43">
+      <c r="AB43">
         <v>554</v>
       </c>
-      <c r="AB43">
-        <v>0</v>
-      </c>
       <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
         <v>113</v>
       </c>
-      <c r="AE43">
+      <c r="AF43">
         <v>126</v>
       </c>
-      <c r="AF43">
-        <v>0</v>
-      </c>
       <c r="AG43">
+        <v>0</v>
+      </c>
+      <c r="AH43">
         <v>0.6</v>
       </c>
-      <c r="AI43" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ43" t="s">
         <v>41</v>
       </c>
-      <c r="AK43" s="1">
+      <c r="AK43" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL43" s="1">
         <v>42618.587500000001</v>
       </c>
-      <c r="AL43" t="s">
+      <c r="AM43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>810</v>
       </c>
@@ -6044,101 +6345,108 @@
       <c r="C44" t="s">
         <v>57</v>
       </c>
+      <c r="D44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/810/original/pic.jpg</v>
+      </c>
       <c r="E44" t="s">
-        <v>38</v>
-      </c>
-      <c r="F44" s="1">
+        <v>202</v>
+      </c>
+      <c r="F44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="1">
         <v>42636.836111111108</v>
       </c>
-      <c r="G44" s="1">
+      <c r="H44" s="1">
         <v>42639.611111111109</v>
       </c>
-      <c r="H44" s="1">
+      <c r="I44" s="1">
         <v>42636.879166666666</v>
       </c>
-      <c r="I44" t="s">
-        <v>38</v>
-      </c>
       <c r="J44" t="s">
         <v>38</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K44" t="s">
+        <v>38</v>
+      </c>
+      <c r="L44" s="1">
         <v>42639.611111111109</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>127</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>128</v>
-      </c>
-      <c r="N44">
-        <v>15</v>
       </c>
       <c r="O44">
         <v>15</v>
       </c>
       <c r="P44">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44">
         <v>25</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>23</v>
       </c>
-      <c r="S44">
-        <v>1</v>
-      </c>
       <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
         <v>15</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>9</v>
       </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
       <c r="W44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X44">
+        <v>1</v>
+      </c>
+      <c r="Y44">
         <v>5</v>
       </c>
-      <c r="Y44">
-        <v>1</v>
-      </c>
       <c r="Z44">
+        <v>1</v>
+      </c>
+      <c r="AA44">
         <v>350</v>
       </c>
-      <c r="AA44">
+      <c r="AB44">
         <v>223</v>
       </c>
-      <c r="AB44">
-        <v>0</v>
-      </c>
       <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
         <v>96</v>
       </c>
-      <c r="AF44">
-        <v>0</v>
-      </c>
       <c r="AG44">
+        <v>0</v>
+      </c>
+      <c r="AH44">
         <v>0.6</v>
       </c>
-      <c r="AI44" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ44" t="s">
         <v>41</v>
       </c>
-      <c r="AK44" s="1">
+      <c r="AK44" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL44" s="1">
         <v>42636.87777777778</v>
       </c>
-      <c r="AL44" t="s">
+      <c r="AM44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>704</v>
       </c>
@@ -6148,104 +6456,111 @@
       <c r="C45" t="s">
         <v>57</v>
       </c>
+      <c r="D45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/704/original/pic.jpg</v>
+      </c>
       <c r="E45" t="s">
-        <v>38</v>
-      </c>
-      <c r="F45" s="1">
+        <v>203</v>
+      </c>
+      <c r="F45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="1">
         <v>42618.819444444445</v>
       </c>
-      <c r="G45" s="1">
+      <c r="H45" s="1">
         <v>42624.870833333334</v>
       </c>
-      <c r="H45" s="1">
+      <c r="I45" s="1">
         <v>42618.820138888892</v>
       </c>
-      <c r="I45" t="s">
-        <v>38</v>
-      </c>
       <c r="J45" t="s">
         <v>38</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K45" t="s">
+        <v>38</v>
+      </c>
+      <c r="L45" s="1">
         <v>42624.870833333334</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>129</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>130</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>30</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>19</v>
       </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
       <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
         <v>20</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>19</v>
       </c>
-      <c r="S45">
-        <v>1</v>
-      </c>
       <c r="T45">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="U45">
         <v>17</v>
       </c>
       <c r="V45">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45">
         <v>5</v>
       </c>
-      <c r="X45">
-        <v>1</v>
-      </c>
       <c r="Y45">
         <v>1</v>
       </c>
       <c r="Z45">
+        <v>1</v>
+      </c>
+      <c r="AA45">
         <v>500</v>
       </c>
-      <c r="AA45">
+      <c r="AB45">
         <v>419</v>
       </c>
-      <c r="AB45">
-        <v>1</v>
-      </c>
       <c r="AC45">
+        <v>1</v>
+      </c>
+      <c r="AD45">
         <v>105</v>
       </c>
-      <c r="AE45">
+      <c r="AF45">
         <v>161</v>
       </c>
-      <c r="AF45">
-        <v>0</v>
-      </c>
       <c r="AG45">
+        <v>0</v>
+      </c>
+      <c r="AH45">
         <v>0.8</v>
       </c>
-      <c r="AI45" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ45" t="s">
         <v>41</v>
       </c>
-      <c r="AK45" s="1">
+      <c r="AK45" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL45" s="1">
         <v>42618.861111111109</v>
       </c>
-      <c r="AL45" t="s">
+      <c r="AM45" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>818</v>
       </c>
@@ -6255,104 +6570,111 @@
       <c r="C46" t="s">
         <v>57</v>
       </c>
+      <c r="D46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/818/original/pic.jpg</v>
+      </c>
       <c r="E46" t="s">
-        <v>38</v>
-      </c>
-      <c r="F46" s="1">
+        <v>204</v>
+      </c>
+      <c r="F46" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="1">
         <v>42637.78125</v>
       </c>
-      <c r="G46" s="1">
+      <c r="H46" s="1">
         <v>42639.831944444442</v>
       </c>
-      <c r="H46" s="1">
+      <c r="I46" s="1">
         <v>42637.781944444447</v>
       </c>
-      <c r="I46" t="s">
-        <v>38</v>
-      </c>
       <c r="J46" t="s">
         <v>38</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K46" t="s">
+        <v>38</v>
+      </c>
+      <c r="L46" s="1">
         <v>42639.831944444442</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>131</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>132</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>20</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>22</v>
       </c>
-      <c r="P46">
-        <v>1</v>
-      </c>
       <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46">
         <v>25</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>27</v>
       </c>
-      <c r="S46">
-        <v>1</v>
-      </c>
       <c r="T46">
+        <v>1</v>
+      </c>
+      <c r="U46">
         <v>45</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>51</v>
       </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
       <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
         <v>2</v>
       </c>
-      <c r="X46">
+      <c r="Y46">
         <v>10</v>
       </c>
-      <c r="Y46">
-        <v>0</v>
-      </c>
       <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
         <v>550</v>
       </c>
-      <c r="AA46">
+      <c r="AB46">
         <v>653</v>
       </c>
-      <c r="AB46">
-        <v>0</v>
-      </c>
       <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
         <v>108</v>
       </c>
-      <c r="AE46">
+      <c r="AF46">
         <v>106</v>
       </c>
-      <c r="AF46">
-        <v>0</v>
-      </c>
       <c r="AG46">
+        <v>0</v>
+      </c>
+      <c r="AH46">
         <v>0.4</v>
       </c>
-      <c r="AI46" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ46" t="s">
         <v>41</v>
       </c>
-      <c r="AK46" s="1">
+      <c r="AK46" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL46" s="1">
         <v>42637.822916666664</v>
       </c>
-      <c r="AL46" t="s">
+      <c r="AM46" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>715</v>
       </c>
@@ -6362,104 +6684,111 @@
       <c r="C47" t="s">
         <v>67</v>
       </c>
+      <c r="D47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/715/original/pic.jpg</v>
+      </c>
       <c r="E47" t="s">
-        <v>38</v>
-      </c>
-      <c r="F47" s="1">
+        <v>184</v>
+      </c>
+      <c r="F47" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="1">
         <v>42620.300694444442</v>
       </c>
-      <c r="G47" s="1">
+      <c r="H47" s="1">
         <v>42625.618055555555</v>
       </c>
-      <c r="H47" s="1">
+      <c r="I47" s="1">
         <v>42620.301388888889</v>
       </c>
-      <c r="I47" t="s">
-        <v>38</v>
-      </c>
       <c r="J47" t="s">
         <v>38</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K47" t="s">
+        <v>38</v>
+      </c>
+      <c r="L47" s="1">
         <v>42625.618055555555</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>133</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>134</v>
-      </c>
-      <c r="N47">
-        <v>45</v>
       </c>
       <c r="O47">
         <v>45</v>
       </c>
       <c r="P47">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47">
         <v>25</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>20</v>
       </c>
-      <c r="S47">
-        <v>1</v>
-      </c>
       <c r="T47">
+        <v>1</v>
+      </c>
+      <c r="U47">
         <v>35</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>15</v>
       </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
       <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
         <v>6</v>
       </c>
-      <c r="X47">
+      <c r="Y47">
         <v>3</v>
       </c>
-      <c r="Y47">
-        <v>1</v>
-      </c>
       <c r="Z47">
+        <v>1</v>
+      </c>
+      <c r="AA47">
         <v>650</v>
       </c>
-      <c r="AA47">
+      <c r="AB47">
         <v>385</v>
       </c>
-      <c r="AB47">
-        <v>0</v>
-      </c>
       <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
         <v>107</v>
       </c>
-      <c r="AE47">
+      <c r="AF47">
         <v>143</v>
       </c>
-      <c r="AF47">
-        <v>0</v>
-      </c>
       <c r="AG47">
+        <v>0</v>
+      </c>
+      <c r="AH47">
         <v>0.6</v>
       </c>
-      <c r="AI47" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ47" t="s">
         <v>41</v>
       </c>
-      <c r="AK47" s="1">
+      <c r="AK47" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL47" s="1">
         <v>42620.342361111114</v>
       </c>
-      <c r="AL47" t="s">
+      <c r="AM47" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>718</v>
       </c>
@@ -6469,104 +6798,111 @@
       <c r="C48" t="s">
         <v>57</v>
       </c>
+      <c r="D48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/718/original/pic.jpg</v>
+      </c>
       <c r="E48" t="s">
-        <v>38</v>
-      </c>
-      <c r="F48" s="1">
+        <v>205</v>
+      </c>
+      <c r="F48" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="1">
         <v>42620.841666666667</v>
       </c>
-      <c r="G48" s="1">
+      <c r="H48" s="1">
         <v>42625.888888888891</v>
       </c>
-      <c r="H48" s="1">
+      <c r="I48" s="1">
         <v>42620.841666666667</v>
       </c>
-      <c r="I48" t="s">
-        <v>38</v>
-      </c>
       <c r="J48" t="s">
         <v>38</v>
       </c>
-      <c r="K48" s="1">
+      <c r="K48" t="s">
+        <v>38</v>
+      </c>
+      <c r="L48" s="1">
         <v>42625.888888888891</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>135</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>136</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>30</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>31</v>
       </c>
-      <c r="P48">
-        <v>1</v>
-      </c>
       <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48">
         <v>30</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>28</v>
       </c>
-      <c r="S48">
-        <v>1</v>
-      </c>
       <c r="T48">
+        <v>1</v>
+      </c>
+      <c r="U48">
         <v>20</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>14</v>
       </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
       <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
         <v>3</v>
       </c>
-      <c r="X48">
+      <c r="Y48">
         <v>7</v>
       </c>
-      <c r="Y48">
-        <v>1</v>
-      </c>
       <c r="Z48">
+        <v>1</v>
+      </c>
+      <c r="AA48">
         <v>700</v>
       </c>
-      <c r="AA48">
+      <c r="AB48">
         <v>1000</v>
       </c>
-      <c r="AB48">
-        <v>0</v>
-      </c>
       <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
         <v>101</v>
       </c>
-      <c r="AE48">
+      <c r="AF48">
         <v>115</v>
       </c>
-      <c r="AF48">
-        <v>0</v>
-      </c>
       <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
         <v>0.6</v>
       </c>
-      <c r="AI48" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ48" t="s">
         <v>41</v>
       </c>
-      <c r="AK48" s="1">
+      <c r="AK48" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL48" s="1">
         <v>42620.883333333331</v>
       </c>
-      <c r="AL48" t="s">
+      <c r="AM48" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>827</v>
       </c>
@@ -6576,104 +6912,111 @@
       <c r="C49" t="s">
         <v>57</v>
       </c>
+      <c r="D49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/827/original/pic.jpg</v>
+      </c>
       <c r="E49" t="s">
-        <v>38</v>
-      </c>
-      <c r="F49" s="1">
+        <v>206</v>
+      </c>
+      <c r="F49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G49" s="1">
         <v>42638.772916666669</v>
       </c>
-      <c r="G49" s="1">
+      <c r="H49" s="1">
         <v>42643.200694444444</v>
       </c>
-      <c r="H49" s="1">
+      <c r="I49" s="1">
         <v>42638.774305555555</v>
       </c>
-      <c r="I49" t="s">
-        <v>38</v>
-      </c>
       <c r="J49" t="s">
         <v>38</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K49" t="s">
+        <v>38</v>
+      </c>
+      <c r="L49" s="1">
         <v>42639.925694444442</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>137</v>
       </c>
-      <c r="M49" t="s">
+      <c r="N49" t="s">
         <v>138</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>30</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>50</v>
       </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
       <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
         <v>30</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <v>50</v>
       </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
       <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
         <v>30</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>50</v>
       </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
       <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
         <v>2</v>
       </c>
-      <c r="X49">
+      <c r="Y49">
         <v>50</v>
       </c>
-      <c r="Y49">
-        <v>0</v>
-      </c>
       <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
         <v>500</v>
       </c>
-      <c r="AA49">
+      <c r="AB49">
         <v>403</v>
       </c>
-      <c r="AB49">
-        <v>1</v>
-      </c>
       <c r="AC49">
+        <v>1</v>
+      </c>
+      <c r="AD49">
         <v>93</v>
       </c>
-      <c r="AE49">
+      <c r="AF49">
         <v>92</v>
       </c>
-      <c r="AF49">
-        <v>0</v>
-      </c>
       <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49">
         <v>0.2</v>
       </c>
-      <c r="AI49" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ49" t="s">
         <v>41</v>
       </c>
-      <c r="AK49" s="1">
+      <c r="AK49" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL49" s="1">
         <v>42638.814583333333</v>
       </c>
-      <c r="AL49" t="s">
+      <c r="AM49" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>727</v>
       </c>
@@ -6683,104 +7026,111 @@
       <c r="C50" t="s">
         <v>57</v>
       </c>
+      <c r="D50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/727/original/pic.jpg</v>
+      </c>
       <c r="E50" t="s">
-        <v>38</v>
-      </c>
-      <c r="F50" s="1">
+        <v>207</v>
+      </c>
+      <c r="F50" t="s">
+        <v>38</v>
+      </c>
+      <c r="G50" s="1">
         <v>42621.836111111108</v>
       </c>
-      <c r="G50" s="1">
+      <c r="H50" s="1">
         <v>42627.648611111108</v>
       </c>
-      <c r="H50" s="1">
+      <c r="I50" s="1">
         <v>42621.836111111108</v>
       </c>
-      <c r="I50" t="s">
-        <v>38</v>
-      </c>
       <c r="J50" t="s">
         <v>38</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K50" t="s">
+        <v>38</v>
+      </c>
+      <c r="L50" s="1">
         <v>42627.648611111108</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>139</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>140</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>35</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>50</v>
       </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
       <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
         <v>25</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>50</v>
       </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
       <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
         <v>35</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>50</v>
       </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
       <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
         <v>4</v>
       </c>
-      <c r="X50">
+      <c r="Y50">
         <v>50</v>
       </c>
-      <c r="Y50">
-        <v>0</v>
-      </c>
       <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
         <v>700</v>
       </c>
-      <c r="AA50">
+      <c r="AB50">
         <v>1000</v>
       </c>
-      <c r="AB50">
-        <v>0</v>
-      </c>
       <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
         <v>97</v>
       </c>
-      <c r="AE50">
+      <c r="AF50">
         <v>100</v>
       </c>
-      <c r="AF50">
-        <v>0</v>
-      </c>
       <c r="AG50">
         <v>0</v>
       </c>
-      <c r="AI50" t="s">
-        <v>41</v>
+      <c r="AH50">
+        <v>0</v>
       </c>
       <c r="AJ50" t="s">
         <v>41</v>
       </c>
-      <c r="AK50" s="1">
+      <c r="AK50" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL50" s="1">
         <v>42621.87777777778</v>
       </c>
-      <c r="AL50" t="s">
+      <c r="AM50" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>733</v>
       </c>
@@ -6790,104 +7140,111 @@
       <c r="C51" t="s">
         <v>57</v>
       </c>
+      <c r="D51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/733/original/pic.jpg</v>
+      </c>
       <c r="E51" t="s">
-        <v>38</v>
-      </c>
-      <c r="F51" s="1">
+        <v>208</v>
+      </c>
+      <c r="F51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G51" s="1">
         <v>42622.85833333333</v>
       </c>
-      <c r="G51" s="1">
+      <c r="H51" s="1">
         <v>42627.686111111114</v>
       </c>
-      <c r="H51" s="1">
+      <c r="I51" s="1">
         <v>42622.859027777777</v>
       </c>
-      <c r="I51" t="s">
-        <v>38</v>
-      </c>
       <c r="J51" t="s">
         <v>38</v>
       </c>
-      <c r="K51" s="1">
+      <c r="K51" t="s">
+        <v>38</v>
+      </c>
+      <c r="L51" s="1">
         <v>42627.685416666667</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>141</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>142</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>20</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>11</v>
       </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
       <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
         <v>45</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <v>66</v>
       </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
       <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
         <v>30</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>27</v>
       </c>
-      <c r="V51">
-        <v>1</v>
-      </c>
       <c r="W51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X51">
         <v>3</v>
       </c>
       <c r="Y51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z51">
+        <v>1</v>
+      </c>
+      <c r="AA51">
         <v>700</v>
       </c>
-      <c r="AA51">
+      <c r="AB51">
         <v>675</v>
       </c>
-      <c r="AB51">
-        <v>1</v>
-      </c>
       <c r="AC51">
+        <v>1</v>
+      </c>
+      <c r="AD51">
         <v>109</v>
       </c>
-      <c r="AE51">
+      <c r="AF51">
         <v>116</v>
       </c>
-      <c r="AF51">
-        <v>0</v>
-      </c>
       <c r="AG51">
+        <v>0</v>
+      </c>
+      <c r="AH51">
         <v>0.6</v>
       </c>
-      <c r="AI51" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ51" t="s">
         <v>41</v>
       </c>
-      <c r="AK51" s="1">
+      <c r="AK51" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL51" s="1">
         <v>42622.9</v>
       </c>
-      <c r="AL51" t="s">
+      <c r="AM51" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>734</v>
       </c>
@@ -6897,104 +7254,111 @@
       <c r="C52" t="s">
         <v>67</v>
       </c>
+      <c r="D52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/734/original/pic.jpg</v>
+      </c>
       <c r="E52" t="s">
-        <v>38</v>
-      </c>
-      <c r="F52" s="1">
+        <v>185</v>
+      </c>
+      <c r="F52" t="s">
+        <v>38</v>
+      </c>
+      <c r="G52" s="1">
         <v>42623.35</v>
       </c>
-      <c r="G52" s="1">
+      <c r="H52" s="1">
         <v>42627.694444444445</v>
       </c>
-      <c r="H52" s="1">
+      <c r="I52" s="1">
         <v>42623.350694444445</v>
       </c>
-      <c r="I52" t="s">
-        <v>38</v>
-      </c>
       <c r="J52" t="s">
         <v>38</v>
       </c>
-      <c r="K52" s="1">
+      <c r="K52" t="s">
+        <v>38</v>
+      </c>
+      <c r="L52" s="1">
         <v>42627.694444444445</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>143</v>
       </c>
-      <c r="M52" t="s">
+      <c r="N52" t="s">
         <v>144</v>
-      </c>
-      <c r="N52">
-        <v>25</v>
       </c>
       <c r="O52">
         <v>25</v>
       </c>
       <c r="P52">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52">
         <v>25</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <v>18</v>
       </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
       <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
         <v>35</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>19</v>
       </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
       <c r="W52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X52">
         <v>3</v>
       </c>
       <c r="Y52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z52">
+        <v>1</v>
+      </c>
+      <c r="AA52">
         <v>650</v>
       </c>
-      <c r="AA52">
+      <c r="AB52">
         <v>357</v>
       </c>
-      <c r="AB52">
-        <v>0</v>
-      </c>
       <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52">
         <v>87</v>
       </c>
-      <c r="AE52">
+      <c r="AF52">
         <v>130</v>
       </c>
-      <c r="AF52">
-        <v>0</v>
-      </c>
       <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
         <v>0.4</v>
       </c>
-      <c r="AI52" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ52" t="s">
         <v>41</v>
       </c>
-      <c r="AK52" s="1">
+      <c r="AK52" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL52" s="1">
         <v>42623.39166666667</v>
       </c>
-      <c r="AL52" t="s">
+      <c r="AM52" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>736</v>
       </c>
@@ -7004,104 +7368,111 @@
       <c r="C53" t="s">
         <v>57</v>
       </c>
+      <c r="D53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/736/original/pic.jpg</v>
+      </c>
       <c r="E53" t="s">
-        <v>38</v>
-      </c>
-      <c r="F53" s="1">
+        <v>209</v>
+      </c>
+      <c r="F53" t="s">
+        <v>38</v>
+      </c>
+      <c r="G53" s="1">
         <v>42623.75277777778</v>
       </c>
-      <c r="G53" s="1">
+      <c r="H53" s="1">
         <v>42628.570833333331</v>
       </c>
-      <c r="H53" s="1">
+      <c r="I53" s="1">
         <v>42623.753472222219</v>
       </c>
-      <c r="I53" t="s">
-        <v>38</v>
-      </c>
       <c r="J53" t="s">
         <v>38</v>
       </c>
-      <c r="K53" s="1">
+      <c r="K53" t="s">
+        <v>38</v>
+      </c>
+      <c r="L53" s="1">
         <v>42628.570833333331</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
         <v>145</v>
       </c>
-      <c r="M53" t="s">
+      <c r="N53" t="s">
         <v>146</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>25</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>34</v>
       </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
       <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
         <v>30</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <v>10</v>
       </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
       <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
         <v>45</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>15</v>
       </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
       <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
         <v>5</v>
       </c>
-      <c r="X53">
+      <c r="Y53">
         <v>6</v>
       </c>
-      <c r="Y53">
-        <v>1</v>
-      </c>
       <c r="Z53">
+        <v>1</v>
+      </c>
+      <c r="AA53">
         <v>700</v>
       </c>
-      <c r="AA53">
+      <c r="AB53">
         <v>406</v>
       </c>
-      <c r="AB53">
-        <v>0</v>
-      </c>
       <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AD53">
         <v>107</v>
       </c>
-      <c r="AE53">
+      <c r="AF53">
         <v>118</v>
       </c>
-      <c r="AF53">
-        <v>0</v>
-      </c>
       <c r="AG53">
+        <v>0</v>
+      </c>
+      <c r="AH53">
         <v>0.2</v>
       </c>
-      <c r="AI53" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ53" t="s">
         <v>41</v>
       </c>
-      <c r="AK53" s="1">
+      <c r="AK53" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL53" s="1">
         <v>42623.794444444444</v>
       </c>
-      <c r="AL53" t="s">
+      <c r="AM53" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>740</v>
       </c>
@@ -7111,104 +7482,111 @@
       <c r="C54" t="s">
         <v>67</v>
       </c>
+      <c r="D54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/740/original/pic.jpg</v>
+      </c>
       <c r="E54" t="s">
-        <v>38</v>
-      </c>
-      <c r="F54" s="1">
+        <v>186</v>
+      </c>
+      <c r="F54" t="s">
+        <v>38</v>
+      </c>
+      <c r="G54" s="1">
         <v>42624.402777777781</v>
       </c>
-      <c r="G54" s="1">
+      <c r="H54" s="1">
         <v>42628.861111111109</v>
       </c>
-      <c r="H54" s="1">
+      <c r="I54" s="1">
         <v>42624.402777777781</v>
       </c>
-      <c r="I54" t="s">
-        <v>38</v>
-      </c>
       <c r="J54" t="s">
         <v>38</v>
       </c>
-      <c r="K54" s="1">
+      <c r="K54" t="s">
+        <v>38</v>
+      </c>
+      <c r="L54" s="1">
         <v>42628.861111111109</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>147</v>
       </c>
-      <c r="M54" t="s">
+      <c r="N54" t="s">
         <v>148</v>
       </c>
-      <c r="N54">
-        <v>38</v>
-      </c>
       <c r="O54">
+        <v>38</v>
+      </c>
+      <c r="P54">
         <v>43</v>
       </c>
-      <c r="P54">
-        <v>1</v>
-      </c>
       <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="R54">
         <v>22</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <v>24</v>
       </c>
-      <c r="S54">
-        <v>1</v>
-      </c>
       <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="U54">
         <v>27</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>21</v>
       </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
       <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
         <v>4</v>
       </c>
-      <c r="X54">
+      <c r="Y54">
         <v>5</v>
       </c>
-      <c r="Y54">
-        <v>1</v>
-      </c>
       <c r="Z54">
+        <v>1</v>
+      </c>
+      <c r="AA54">
         <v>500</v>
       </c>
-      <c r="AA54">
+      <c r="AB54">
         <v>355</v>
       </c>
-      <c r="AB54">
-        <v>0</v>
-      </c>
       <c r="AC54">
+        <v>0</v>
+      </c>
+      <c r="AD54">
         <v>108</v>
       </c>
-      <c r="AE54">
+      <c r="AF54">
         <v>135</v>
       </c>
-      <c r="AF54">
-        <v>0</v>
-      </c>
       <c r="AG54">
+        <v>0</v>
+      </c>
+      <c r="AH54">
         <v>0.6</v>
       </c>
-      <c r="AI54" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ54" t="s">
         <v>41</v>
       </c>
-      <c r="AK54" s="1">
+      <c r="AK54" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL54" s="1">
         <v>42624.444444444445</v>
       </c>
-      <c r="AL54" t="s">
+      <c r="AM54" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>742</v>
       </c>
@@ -7218,104 +7596,111 @@
       <c r="C55" t="s">
         <v>60</v>
       </c>
+      <c r="D55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/742/original/pic.jpg</v>
+      </c>
       <c r="E55" t="s">
-        <v>38</v>
-      </c>
-      <c r="F55" s="1">
+        <v>222</v>
+      </c>
+      <c r="F55" t="s">
+        <v>38</v>
+      </c>
+      <c r="G55" s="1">
         <v>42624.550694444442</v>
       </c>
-      <c r="G55" s="1">
+      <c r="H55" s="1">
         <v>42628.875</v>
       </c>
-      <c r="H55" s="1">
+      <c r="I55" s="1">
         <v>42624.550694444442</v>
       </c>
-      <c r="I55" t="s">
-        <v>38</v>
-      </c>
       <c r="J55" t="s">
         <v>38</v>
       </c>
-      <c r="K55" s="1">
+      <c r="K55" t="s">
+        <v>38</v>
+      </c>
+      <c r="L55" s="1">
         <v>42628.875</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>149</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>150</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>20</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>23</v>
       </c>
-      <c r="P55">
-        <v>1</v>
-      </c>
       <c r="Q55">
+        <v>1</v>
+      </c>
+      <c r="R55">
         <v>30</v>
       </c>
-      <c r="R55">
+      <c r="S55">
         <v>72</v>
       </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
       <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
         <v>40</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>42</v>
       </c>
-      <c r="V55">
-        <v>1</v>
-      </c>
       <c r="W55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X55">
         <v>4</v>
       </c>
       <c r="Y55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z55">
+        <v>1</v>
+      </c>
+      <c r="AA55">
         <v>600</v>
       </c>
-      <c r="AA55">
+      <c r="AB55">
         <v>694</v>
       </c>
-      <c r="AB55">
-        <v>1</v>
-      </c>
       <c r="AC55">
+        <v>1</v>
+      </c>
+      <c r="AD55">
         <v>98</v>
       </c>
-      <c r="AE55">
+      <c r="AF55">
         <v>114</v>
       </c>
-      <c r="AF55">
-        <v>0</v>
-      </c>
       <c r="AG55">
+        <v>0</v>
+      </c>
+      <c r="AH55">
         <v>0.8</v>
       </c>
-      <c r="AI55" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ55" t="s">
         <v>41</v>
       </c>
-      <c r="AK55" s="1">
+      <c r="AK55" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL55" s="1">
         <v>42624.592361111114</v>
       </c>
-      <c r="AL55" t="s">
+      <c r="AM55" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>745</v>
       </c>
@@ -7325,104 +7710,111 @@
       <c r="C56" t="s">
         <v>57</v>
       </c>
+      <c r="D56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/745/original/pic.jpg</v>
+      </c>
       <c r="E56" t="s">
-        <v>38</v>
-      </c>
-      <c r="F56" s="1">
+        <v>210</v>
+      </c>
+      <c r="F56" t="s">
+        <v>38</v>
+      </c>
+      <c r="G56" s="1">
         <v>42624.761111111111</v>
       </c>
-      <c r="G56" s="1">
+      <c r="H56" s="1">
         <v>42628.916666666664</v>
       </c>
-      <c r="H56" s="1">
+      <c r="I56" s="1">
         <v>42624.761805555558</v>
       </c>
-      <c r="I56" t="s">
-        <v>38</v>
-      </c>
       <c r="J56" t="s">
         <v>38</v>
       </c>
-      <c r="K56" s="1">
+      <c r="K56" t="s">
+        <v>38</v>
+      </c>
+      <c r="L56" s="1">
         <v>42628.916666666664</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>151</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" t="s">
         <v>152</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>30</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>72</v>
       </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
       <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
         <v>25</v>
       </c>
-      <c r="R56">
+      <c r="S56">
         <v>33</v>
       </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
       <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
         <v>25</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>27</v>
       </c>
-      <c r="V56">
-        <v>1</v>
-      </c>
       <c r="W56">
+        <v>1</v>
+      </c>
+      <c r="X56">
         <v>3</v>
       </c>
-      <c r="X56">
+      <c r="Y56">
         <v>8</v>
       </c>
-      <c r="Y56">
-        <v>1</v>
-      </c>
       <c r="Z56">
+        <v>1</v>
+      </c>
+      <c r="AA56">
         <v>650</v>
       </c>
-      <c r="AA56">
+      <c r="AB56">
         <v>680</v>
       </c>
-      <c r="AB56">
-        <v>1</v>
-      </c>
       <c r="AC56">
+        <v>1</v>
+      </c>
+      <c r="AD56">
         <v>94</v>
       </c>
-      <c r="AE56">
+      <c r="AF56">
         <v>96</v>
       </c>
-      <c r="AF56">
-        <v>0</v>
-      </c>
       <c r="AG56">
+        <v>0</v>
+      </c>
+      <c r="AH56">
         <v>0.6</v>
       </c>
-      <c r="AI56" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ56" t="s">
         <v>41</v>
       </c>
-      <c r="AK56" s="1">
+      <c r="AK56" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL56" s="1">
         <v>42624.802777777775</v>
       </c>
-      <c r="AL56" t="s">
+      <c r="AM56" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>748</v>
       </c>
@@ -7432,104 +7824,111 @@
       <c r="C57" t="s">
         <v>115</v>
       </c>
+      <c r="D57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/748/original/pic.jpg</v>
+      </c>
       <c r="E57" t="s">
-        <v>38</v>
-      </c>
-      <c r="F57" s="1">
+        <v>189</v>
+      </c>
+      <c r="F57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57" s="1">
         <v>42624.898611111108</v>
       </c>
-      <c r="G57" s="1">
+      <c r="H57" s="1">
         <v>42629.496527777781</v>
       </c>
-      <c r="H57" s="1">
+      <c r="I57" s="1">
         <v>42624.898611111108</v>
       </c>
-      <c r="I57" t="s">
-        <v>38</v>
-      </c>
       <c r="J57" t="s">
         <v>38</v>
       </c>
-      <c r="K57" s="1">
+      <c r="K57" t="s">
+        <v>38</v>
+      </c>
+      <c r="L57" s="1">
         <v>42629.496527777781</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>153</v>
       </c>
-      <c r="M57" t="s">
+      <c r="N57" t="s">
         <v>154</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>18</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>19</v>
       </c>
-      <c r="P57">
-        <v>1</v>
-      </c>
       <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="R57">
         <v>4</v>
       </c>
-      <c r="R57">
+      <c r="S57">
         <v>3</v>
       </c>
-      <c r="S57">
-        <v>1</v>
-      </c>
       <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57">
         <v>10</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>8</v>
       </c>
-      <c r="V57">
-        <v>1</v>
-      </c>
       <c r="W57">
         <v>1</v>
       </c>
       <c r="X57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z57">
+        <v>1</v>
+      </c>
+      <c r="AA57">
         <v>180</v>
       </c>
-      <c r="AA57">
+      <c r="AB57">
         <v>159</v>
       </c>
-      <c r="AB57">
-        <v>1</v>
-      </c>
       <c r="AC57">
+        <v>1</v>
+      </c>
+      <c r="AD57">
         <v>90</v>
       </c>
-      <c r="AE57">
+      <c r="AF57">
         <v>116</v>
       </c>
-      <c r="AF57">
-        <v>0</v>
-      </c>
       <c r="AG57">
-        <v>1</v>
-      </c>
-      <c r="AI57" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="AH57">
+        <v>1</v>
       </c>
       <c r="AJ57" t="s">
         <v>41</v>
       </c>
-      <c r="AK57" s="1">
+      <c r="AK57" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL57" s="1">
         <v>42624.94027777778</v>
       </c>
-      <c r="AL57" t="s">
+      <c r="AM57" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>760</v>
       </c>
@@ -7539,104 +7938,111 @@
       <c r="C58" t="s">
         <v>60</v>
       </c>
+      <c r="D58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/760/original/pic.jpg</v>
+      </c>
       <c r="E58" t="s">
-        <v>38</v>
-      </c>
-      <c r="F58" s="1">
+        <v>223</v>
+      </c>
+      <c r="F58" t="s">
+        <v>38</v>
+      </c>
+      <c r="G58" s="1">
         <v>42626.606944444444</v>
       </c>
-      <c r="G58" s="1">
+      <c r="H58" s="1">
         <v>42631.737500000003</v>
       </c>
-      <c r="H58" s="1">
+      <c r="I58" s="1">
         <v>42626.606944444444</v>
       </c>
-      <c r="I58" t="s">
-        <v>38</v>
-      </c>
       <c r="J58" t="s">
         <v>38</v>
       </c>
-      <c r="K58" s="1">
+      <c r="K58" t="s">
+        <v>38</v>
+      </c>
+      <c r="L58" s="1">
         <v>42631.737500000003</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>155</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N58" t="s">
         <v>156</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>30</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>27</v>
       </c>
-      <c r="P58">
-        <v>1</v>
-      </c>
       <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="R58">
         <v>15</v>
       </c>
-      <c r="R58">
+      <c r="S58">
         <v>16</v>
       </c>
-      <c r="S58">
-        <v>1</v>
-      </c>
       <c r="T58">
+        <v>1</v>
+      </c>
+      <c r="U58">
         <v>18</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>13</v>
       </c>
-      <c r="V58">
-        <v>1</v>
-      </c>
       <c r="W58">
+        <v>1</v>
+      </c>
+      <c r="X58">
         <v>8</v>
       </c>
-      <c r="X58">
+      <c r="Y58">
         <v>11</v>
       </c>
-      <c r="Y58">
-        <v>1</v>
-      </c>
       <c r="Z58">
+        <v>1</v>
+      </c>
+      <c r="AA58">
         <v>350</v>
       </c>
-      <c r="AA58">
+      <c r="AB58">
         <v>265</v>
       </c>
-      <c r="AB58">
-        <v>1</v>
-      </c>
       <c r="AC58">
+        <v>1</v>
+      </c>
+      <c r="AD58">
         <v>98</v>
       </c>
-      <c r="AE58">
+      <c r="AF58">
         <v>131</v>
       </c>
-      <c r="AF58">
-        <v>0</v>
-      </c>
       <c r="AG58">
-        <v>1</v>
-      </c>
-      <c r="AI58" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="AH58">
+        <v>1</v>
       </c>
       <c r="AJ58" t="s">
         <v>41</v>
       </c>
-      <c r="AK58" s="1">
+      <c r="AK58" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL58" s="1">
         <v>42626.648611111108</v>
       </c>
-      <c r="AL58" t="s">
+      <c r="AM58" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>861</v>
       </c>
@@ -7646,104 +8052,111 @@
       <c r="C59" t="s">
         <v>57</v>
       </c>
+      <c r="D59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/861/original/pic.jpg</v>
+      </c>
       <c r="E59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F59" s="1">
+        <v>211</v>
+      </c>
+      <c r="F59" t="s">
+        <v>38</v>
+      </c>
+      <c r="G59" s="1">
         <v>42643.830555555556</v>
       </c>
-      <c r="G59" s="1">
+      <c r="H59" s="1">
         <v>42644.904861111114</v>
       </c>
-      <c r="H59" s="1">
+      <c r="I59" s="1">
         <v>42643.831250000003</v>
       </c>
-      <c r="I59" t="s">
-        <v>38</v>
-      </c>
       <c r="J59" t="s">
         <v>38</v>
       </c>
-      <c r="K59" s="1">
+      <c r="K59" t="s">
+        <v>38</v>
+      </c>
+      <c r="L59" s="1">
         <v>42644.904861111114</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>157</v>
       </c>
-      <c r="M59" t="s">
+      <c r="N59" t="s">
         <v>158</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>34</v>
       </c>
-      <c r="O59">
+      <c r="P59">
         <v>9</v>
       </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
       <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
         <v>50</v>
       </c>
-      <c r="R59">
+      <c r="S59">
         <v>15</v>
       </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
       <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
         <v>30</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>39</v>
       </c>
-      <c r="V59">
-        <v>0</v>
-      </c>
       <c r="W59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X59">
         <v>2</v>
       </c>
       <c r="Y59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z59">
+        <v>1</v>
+      </c>
+      <c r="AA59">
         <v>650</v>
       </c>
-      <c r="AA59">
+      <c r="AB59">
         <v>430</v>
       </c>
-      <c r="AB59">
-        <v>0</v>
-      </c>
       <c r="AC59">
+        <v>0</v>
+      </c>
+      <c r="AD59">
         <v>98</v>
       </c>
-      <c r="AE59">
+      <c r="AF59">
         <v>97</v>
       </c>
-      <c r="AF59">
-        <v>0</v>
-      </c>
       <c r="AG59">
+        <v>0</v>
+      </c>
+      <c r="AH59">
         <v>0.2</v>
       </c>
-      <c r="AI59" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ59" t="s">
         <v>41</v>
       </c>
-      <c r="AK59" s="1">
+      <c r="AK59" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL59" s="1">
         <v>42643.87222222222</v>
       </c>
-      <c r="AL59" t="s">
+      <c r="AM59" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>864</v>
       </c>
@@ -7753,104 +8166,111 @@
       <c r="C60" t="s">
         <v>57</v>
       </c>
+      <c r="D60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/864/original/pic.jpg</v>
+      </c>
       <c r="E60" t="s">
-        <v>38</v>
-      </c>
-      <c r="F60" s="1">
+        <v>212</v>
+      </c>
+      <c r="F60" t="s">
+        <v>38</v>
+      </c>
+      <c r="G60" s="1">
         <v>42644.824305555558</v>
       </c>
-      <c r="G60" s="1">
+      <c r="H60" s="1">
         <v>42706.213888888888</v>
       </c>
-      <c r="H60" s="1">
+      <c r="I60" s="1">
         <v>42644.824999999997</v>
       </c>
-      <c r="I60" t="s">
-        <v>38</v>
-      </c>
       <c r="J60" t="s">
         <v>38</v>
       </c>
-      <c r="K60" s="1">
+      <c r="K60" t="s">
+        <v>38</v>
+      </c>
+      <c r="L60" s="1">
         <v>42644.912499999999</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>159</v>
       </c>
-      <c r="M60" t="s">
+      <c r="N60" t="s">
         <v>160</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>35</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>39</v>
       </c>
-      <c r="P60">
-        <v>1</v>
-      </c>
       <c r="Q60">
+        <v>1</v>
+      </c>
+      <c r="R60">
         <v>55</v>
       </c>
-      <c r="R60">
+      <c r="S60">
         <v>23</v>
       </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
       <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
         <v>50</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>17</v>
       </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
       <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
         <v>2</v>
       </c>
-      <c r="X60">
+      <c r="Y60">
         <v>3</v>
       </c>
-      <c r="Y60">
-        <v>1</v>
-      </c>
       <c r="Z60">
+        <v>1</v>
+      </c>
+      <c r="AA60">
         <v>900</v>
       </c>
-      <c r="AA60">
+      <c r="AB60">
         <v>509</v>
       </c>
-      <c r="AB60">
-        <v>0</v>
-      </c>
       <c r="AC60">
+        <v>0</v>
+      </c>
+      <c r="AD60">
         <v>106</v>
       </c>
-      <c r="AE60">
+      <c r="AF60">
         <v>141</v>
       </c>
-      <c r="AF60">
-        <v>0</v>
-      </c>
       <c r="AG60">
+        <v>0</v>
+      </c>
+      <c r="AH60">
         <v>0.4</v>
       </c>
-      <c r="AI60" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ60" t="s">
         <v>41</v>
       </c>
-      <c r="AK60" s="1">
+      <c r="AK60" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL60" s="1">
         <v>42644.865972222222</v>
       </c>
-      <c r="AL60" t="s">
+      <c r="AM60" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>769</v>
       </c>
@@ -7860,100 +8280,107 @@
       <c r="C61" t="s">
         <v>57</v>
       </c>
+      <c r="D61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://github.com/mlhwang/mealyzer/blob/master/meals/769/original/pic.jpg</v>
+      </c>
       <c r="E61" t="s">
-        <v>38</v>
-      </c>
-      <c r="F61" s="1">
+        <v>213</v>
+      </c>
+      <c r="F61" t="s">
+        <v>38</v>
+      </c>
+      <c r="G61" s="1">
         <v>42628.838194444441</v>
       </c>
-      <c r="G61" s="1">
+      <c r="H61" s="1">
         <v>42631.913194444445</v>
       </c>
-      <c r="H61" s="1">
+      <c r="I61" s="1">
         <v>42628.850694444445</v>
       </c>
-      <c r="I61" t="s">
-        <v>38</v>
-      </c>
       <c r="J61" t="s">
         <v>38</v>
       </c>
-      <c r="K61" s="1">
+      <c r="K61" t="s">
+        <v>38</v>
+      </c>
+      <c r="L61" s="1">
         <v>42631.913194444445</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>161</v>
       </c>
-      <c r="M61" t="s">
+      <c r="N61" t="s">
         <v>162</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>15</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <v>24</v>
       </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
       <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
         <v>30</v>
       </c>
-      <c r="R61">
+      <c r="S61">
         <v>22</v>
       </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
       <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
         <v>20</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>12</v>
       </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
       <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
         <v>3</v>
       </c>
-      <c r="X61">
-        <v>1</v>
-      </c>
       <c r="Y61">
         <v>1</v>
       </c>
       <c r="Z61">
+        <v>1</v>
+      </c>
+      <c r="AA61">
         <v>500</v>
       </c>
-      <c r="AA61">
+      <c r="AB61">
         <v>619</v>
       </c>
-      <c r="AB61">
-        <v>0</v>
-      </c>
       <c r="AC61">
+        <v>0</v>
+      </c>
+      <c r="AD61">
         <v>91</v>
       </c>
-      <c r="AE61">
+      <c r="AF61">
         <v>98</v>
       </c>
-      <c r="AF61">
-        <v>0</v>
-      </c>
       <c r="AG61">
+        <v>0</v>
+      </c>
+      <c r="AH61">
         <v>0.2</v>
       </c>
-      <c r="AI61" t="s">
-        <v>41</v>
-      </c>
       <c r="AJ61" t="s">
         <v>41</v>
       </c>
-      <c r="AK61" s="1">
+      <c r="AK61" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL61" s="1">
         <v>42628.879861111112</v>
       </c>
-      <c r="AL61" t="s">
+      <c r="AM61" t="s">
         <v>41</v>
       </c>
     </row>
@@ -9619,7 +10046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
